--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
   <si>
     <t>%</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>GL Testing</t>
+  </si>
+  <si>
+    <t>GeoIpCountry</t>
+  </si>
+  <si>
+    <t>united kingdom</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -675,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,13 +706,15 @@
     <col min="14" max="14" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -750,22 +764,28 @@
         <v>75</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -809,22 +829,28 @@
         <v>72</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
@@ -865,19 +891,21 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="8"/>
+      <c r="W3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -918,21 +946,23 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="7"/>
+      <c r="U4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="10">
+      <c r="V4" s="10">
         <v>0</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -981,17 +1011,21 @@
       <c r="P5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
@@ -1032,21 +1066,23 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="8">
+      <c r="V6" s="8">
         <v>5</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
@@ -1087,21 +1123,23 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="7"/>
+      <c r="U7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="10">
+      <c r="V7" s="10">
         <v>10</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1142,17 +1180,19 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
@@ -1193,21 +1233,23 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="7"/>
+      <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T9" s="8">
+      <c r="V9" s="8">
         <v>0</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -1248,21 +1290,23 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="10" t="s">
+      <c r="T10" s="7"/>
+      <c r="U10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T10" s="10">
+      <c r="V10" s="10">
         <v>15</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="W10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -1303,17 +1347,19 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
@@ -1354,21 +1400,23 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="8" t="s">
+      <c r="T12" s="7"/>
+      <c r="U12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T12" s="8">
+      <c r="V12" s="8">
         <v>15</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1409,19 +1457,21 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="7"/>
+      <c r="U13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="8" t="s">
+      <c r="V13" s="10"/>
+      <c r="W13" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1461,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1637,7 @@
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O2</f>
-        <v>AED</v>
+        <v>USD</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,8 +1649,27 @@
         <v>International English</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q2</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R2</f>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1732,7 +1801,7 @@
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O2</f>
-        <v>AED</v>
+        <v>USD</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
     <sheet name="EuroNormalWhitelist" sheetId="24" r:id="rId2"/>
-    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId3"/>
-    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId4"/>
-    <sheet name="Transactions" sheetId="23" r:id="rId5"/>
+    <sheet name="EuroReseller" sheetId="25" r:id="rId3"/>
+    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId4"/>
+    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId5"/>
+    <sheet name="Transactions" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
   <si>
     <t>%</t>
   </si>
@@ -689,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +864,9 @@
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
@@ -892,7 +895,9 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="R3" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="S3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1675,6 +1680,170 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C3</f>
+        <v>Tester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D3</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E3</f>
+        <v>GL Testing</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F3</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G3</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H3</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I3</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J3</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K3</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L3</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M2</f>
+        <v>00001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N2</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O2</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P2</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q2</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R3</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1818,7 +1987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1963,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
   <si>
     <t>%</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>79016</t>
+  </si>
+  <si>
+    <t>Lviv</t>
+  </si>
+  <si>
+    <t>31/1</t>
+  </si>
+  <si>
+    <t>Marka Vovchka</t>
   </si>
 </sst>
 </file>
@@ -690,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +715,9 @@
     <col min="6" max="6" width="24.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="23" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1" collapsed="1"/>
@@ -880,21 +894,25 @@
         <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="P3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="R3" s="16" t="s">
         <v>86</v>
       </c>
@@ -1519,7 +1537,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1761,7 +1779,7 @@
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J3</f>
-        <v>City</v>
+        <v>Lviv</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1788,7 @@
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K3</f>
-        <v>Full</v>
+        <v>31/1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1797,7 @@
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L3</f>
-        <v>Street</v>
+        <v>Marka Vovchka</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,26 +1805,26 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M2</f>
-        <v>00001</v>
+        <f>TestAccountsInfo!M3</f>
+        <v>79016</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N2</f>
-        <v>AED</v>
+      <c r="B12" s="18">
+        <f>TestAccountsInfo!N3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O2</f>
-        <v>USD</v>
+      <c r="B13" s="18">
+        <f>TestAccountsInfo!O3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1832,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P2</f>
+        <f>TestAccountsInfo!P3</f>
         <v>International English</v>
       </c>
     </row>
@@ -1823,7 +1841,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q2</f>
+        <f>TestAccountsInfo!Q3</f>
         <v>united kingdom</v>
       </c>
     </row>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
     <sheet name="EuroNormalWhitelist" sheetId="24" r:id="rId2"/>
     <sheet name="EuroReseller" sheetId="25" r:id="rId3"/>
-    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId4"/>
-    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId5"/>
-    <sheet name="Transactions" sheetId="23" r:id="rId6"/>
+    <sheet name="EuroMasterReseller" sheetId="26" r:id="rId4"/>
+    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId5"/>
+    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId6"/>
+    <sheet name="Transactions" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="93">
   <si>
     <t>%</t>
   </si>
@@ -292,6 +293,12 @@
   </si>
   <si>
     <t>Marka Vovchka</t>
+  </si>
+  <si>
+    <t>Master Tester</t>
+  </si>
+  <si>
+    <t>Marka</t>
   </si>
 </sst>
 </file>
@@ -702,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +948,9 @@
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
@@ -955,22 +964,28 @@
         <v>32</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="P4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="S4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1861,6 +1876,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C4</f>
+        <v>MasterTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D4</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E4</f>
+        <v>Master Tester</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F4</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G4</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H4</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I4</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J4</f>
+        <v>Lviv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K4</f>
+        <v>31/1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L4</f>
+        <v>Marka</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M4</f>
+        <v>79016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18">
+        <f>TestAccountsInfo!N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18">
+        <f>TestAccountsInfo!O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P4</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q4</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R4</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2005,7 +2184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2150,7 +2329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -11,16 +11,19 @@
     <sheet name="EuroNormalWhitelist" sheetId="24" r:id="rId2"/>
     <sheet name="EuroReseller" sheetId="25" r:id="rId3"/>
     <sheet name="EuroMasterReseller" sheetId="26" r:id="rId4"/>
-    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId5"/>
-    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId6"/>
-    <sheet name="Transactions" sheetId="23" r:id="rId7"/>
+    <sheet name="InterNormalWhitelist" sheetId="27" r:id="rId5"/>
+    <sheet name="InterReseller" sheetId="28" r:id="rId6"/>
+    <sheet name="InterMasterReseller" sheetId="29" r:id="rId7"/>
+    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId8"/>
+    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId9"/>
+    <sheet name="Transactions" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="98">
   <si>
     <t>%</t>
   </si>
@@ -253,9 +256,6 @@
     <t>International English</t>
   </si>
   <si>
-    <t>GL Tester</t>
-  </si>
-  <si>
     <t>normaltester</t>
   </si>
   <si>
@@ -299,6 +299,24 @@
   </si>
   <si>
     <t>Marka</t>
+  </si>
+  <si>
+    <t>International Normal Tester</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>International Reseller</t>
+  </si>
+  <si>
+    <t>International Master</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -709,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +736,8 @@
     <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="23" customWidth="1" collapsed="1"/>
@@ -786,10 +805,10 @@
         <v>75</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>19</v>
@@ -821,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -857,10 +876,10 @@
         <v>76</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>24</v>
@@ -886,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -901,16 +920,16 @@
         <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="M3" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -918,10 +937,10 @@
         <v>76</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>24</v>
@@ -949,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
@@ -964,16 +983,16 @@
         <v>32</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="L4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -981,10 +1000,10 @@
         <v>76</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>24</v>
@@ -1014,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
@@ -1038,7 +1057,7 @@
         <v>68</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>72</v>
@@ -1050,9 +1069,11 @@
         <v>76</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="S5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1097,9 @@
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1103,9 +1126,15 @@
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="P6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="S6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1133,7 +1162,9 @@
       <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>68</v>
@@ -1160,9 +1191,15 @@
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="P7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="S7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1541,9 +1578,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
-  <ignoredErrors>
-    <ignoredError sqref="M5" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1689,7 +1766,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q2</f>
@@ -1698,7 +1775,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R2</f>
@@ -1712,6 +1789,498 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C3</f>
+        <v>Tester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D3</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E3</f>
+        <v>GL Testing</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F3</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G3</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H3</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I3</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J3</f>
+        <v>Lviv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K3</f>
+        <v>31/1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L3</f>
+        <v>Marka Vovchka</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M3</f>
+        <v>79016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18">
+        <f>TestAccountsInfo!N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18">
+        <f>TestAccountsInfo!O3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P3</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q3</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R3</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C4</f>
+        <v>MasterTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D4</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E4</f>
+        <v>Master Tester</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F4</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G4</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H4</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I4</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J4</f>
+        <v>Lviv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K4</f>
+        <v>31/1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L4</f>
+        <v>Marka</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M4</f>
+        <v>79016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18">
+        <f>TestAccountsInfo!N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18">
+        <f>TestAccountsInfo!O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P4</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q4</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R4</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TestAccountsInfo!C5</f>
+        <v>InterNormalTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TestAccountsInfo!E5</f>
+        <v>International Normal Tester</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TestAccountsInfo!F5</f>
+        <v>khikmatovaj@mail.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N5</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q5</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -1730,8 +2299,8 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C3</f>
-        <v>Tester</v>
+        <f>TestAccountsInfo!C6</f>
+        <v>InterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D3</f>
+        <f>TestAccountsInfo!D6</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -1748,8 +2317,8 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E3</f>
-        <v>GL Testing</v>
+        <f>TestAccountsInfo!E6</f>
+        <v>International Reseller</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,8 +2326,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F3</f>
-        <v>gltesting13@gmail.com</v>
+        <f>TestAccountsInfo!F6</f>
+        <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +2335,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G3</f>
+        <f>TestAccountsInfo!G6</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -1775,7 +2344,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H3</f>
+        <f>TestAccountsInfo!H6</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -1784,8 +2353,8 @@
         <v>64</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I3</f>
-        <v>Spain</v>
+        <f>TestAccountsInfo!I6</f>
+        <v>Lebanon</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,8 +2362,8 @@
         <v>65</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J3</f>
-        <v>Lviv</v>
+        <f>TestAccountsInfo!J6</f>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,8 +2371,8 @@
         <v>66</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K3</f>
-        <v>31/1</v>
+        <f>TestAccountsInfo!K6</f>
+        <v>Full</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,8 +2380,8 @@
         <v>68</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L3</f>
-        <v>Marka Vovchka</v>
+        <f>TestAccountsInfo!L6</f>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,8 +2389,8 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M3</f>
-        <v>79016</v>
+        <f>TestAccountsInfo!M6</f>
+        <v>00001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +2398,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18">
-        <f>TestAccountsInfo!N3</f>
+        <f>TestAccountsInfo!N6</f>
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2407,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18">
-        <f>TestAccountsInfo!O3</f>
+        <f>TestAccountsInfo!O6</f>
         <v>0</v>
       </c>
     </row>
@@ -1847,26 +2416,26 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P3</f>
+        <f>TestAccountsInfo!P6</f>
         <v>International English</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q3</f>
+        <f>TestAccountsInfo!Q6</f>
         <v>united kingdom</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R3</f>
-        <v>21</v>
+        <f>TestAccountsInfo!R6</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -1894,8 +2463,8 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C4</f>
-        <v>MasterTester</v>
+        <f>TestAccountsInfo!C7</f>
+        <v>InterMasterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D4</f>
+        <f>TestAccountsInfo!D7</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -1912,8 +2481,8 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E4</f>
-        <v>Master Tester</v>
+        <f>TestAccountsInfo!E7</f>
+        <v>International Master</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,8 +2490,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F4</f>
-        <v>gltesting13@gmail.com</v>
+        <f>TestAccountsInfo!F7</f>
+        <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +2499,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G4</f>
+        <f>TestAccountsInfo!G7</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -1939,7 +2508,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H4</f>
+        <f>TestAccountsInfo!H7</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -1948,8 +2517,8 @@
         <v>64</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I4</f>
-        <v>Netherlands</v>
+        <f>TestAccountsInfo!I7</f>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,8 +2526,8 @@
         <v>65</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J4</f>
-        <v>Lviv</v>
+        <f>TestAccountsInfo!J7</f>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,8 +2535,8 @@
         <v>66</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K4</f>
-        <v>31/1</v>
+        <f>TestAccountsInfo!K7</f>
+        <v>Address</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,8 +2544,8 @@
         <v>68</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L4</f>
-        <v>Marka</v>
+        <f>TestAccountsInfo!L7</f>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,8 +2553,8 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M4</f>
-        <v>79016</v>
+        <f>TestAccountsInfo!M7</f>
+        <v>00001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2562,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18">
-        <f>TestAccountsInfo!N4</f>
+        <f>TestAccountsInfo!N7</f>
         <v>0</v>
       </c>
     </row>
@@ -2002,7 +2571,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18">
-        <f>TestAccountsInfo!O4</f>
+        <f>TestAccountsInfo!O7</f>
         <v>0</v>
       </c>
     </row>
@@ -2011,26 +2580,26 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P4</f>
+        <f>TestAccountsInfo!P7</f>
         <v>International English</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q4</f>
+        <f>TestAccountsInfo!Q7</f>
         <v>united kingdom</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R4</f>
-        <v>21</v>
+        <f>TestAccountsInfo!R7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2184,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2222,7 +2791,7 @@
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E5</f>
-        <v>GL Tester</v>
+        <v>International Normal Tester</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2863,7 @@
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
-        <v>00001</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,49 +2891,6 @@
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
         <v>International English</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -310,13 +310,13 @@
     <t>International Reseller</t>
   </si>
   <si>
-    <t>International Master</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Inter Master</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1072,7 @@
         <v>83</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>25</v>
@@ -1133,7 +1133,7 @@
         <v>83</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>25</v>
@@ -1163,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>65</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>68</v>
@@ -1198,7 +1198,7 @@
         <v>83</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>25</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E7</f>
-        <v>International Master</v>
+        <v>Inter Master</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId8"/>
     <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId9"/>
     <sheet name="Transactions" sheetId="23" r:id="rId10"/>
+    <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="98">
   <si>
     <t>%</t>
   </si>
@@ -727,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1624,6 +1625,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="19" t="str">
+        <f>TestAccountsInfo!G5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="19" t="str">
+        <f>TestAccountsInfo!H5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
@@ -2758,7 +2894,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="102">
   <si>
     <t>%</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>Inter Master</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>testUsername</t>
+  </si>
+  <si>
+    <t>testFullName</t>
+  </si>
+  <si>
+    <t>+123456789876</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1642,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1655,9 @@
       <c r="A1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1658,30 +1672,32 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="19" t="str">
-        <f>TestAccountsInfo!G5</f>
-        <v>+380979029368</v>
+      <c r="B5" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="19" t="str">
-        <f>TestAccountsInfo!H5</f>
-        <v>+380979029368</v>
+      <c r="B6" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,6 +1773,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>Inter Master</t>
   </si>
   <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
     <t>testUsername</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>+123456789876</t>
+  </si>
+  <si>
+    <t>testerName@test.com</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1642,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1656,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="105">
   <si>
     <t>%</t>
   </si>
@@ -330,13 +330,22 @@
   </si>
   <si>
     <t>testerName@test.com</t>
+  </si>
+  <si>
+    <t>BusinessName</t>
+  </si>
+  <si>
+    <t>Business name</t>
+  </si>
+  <si>
+    <t>testBusiness Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +357,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -436,6 +451,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,9 +785,10 @@
     <col min="20" max="20" width="12.28515625" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="11.85546875" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -838,8 +858,11 @@
       <c r="W1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -903,8 +926,9 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
@@ -966,8 +990,11 @@
       <c r="W3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1031,8 +1058,11 @@
       <c r="W4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1096,8 +1126,9 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
@@ -1161,8 +1192,11 @@
       <c r="W6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
@@ -1226,8 +1260,11 @@
       <c r="W7" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1279,8 +1316,9 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
@@ -1336,8 +1374,11 @@
       <c r="W9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -1393,8 +1434,11 @@
       <c r="W10" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -1446,8 +1490,9 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
@@ -1503,8 +1548,11 @@
       <c r="W12" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1558,8 +1606,11 @@
       <c r="W13" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1639,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,6 +1822,14 @@
         <v>International English</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1779,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,6 +1994,15 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!X2</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1943,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,6 +2167,15 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!X3</f>
+        <v>Business name</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2107,335 +2184,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C4</f>
-        <v>MasterTester</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D4</f>
-        <v>Tester13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E4</f>
-        <v>Master Tester</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F4</f>
-        <v>gltesting13@gmail.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G4</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H4</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I4</f>
-        <v>Netherlands</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J4</f>
-        <v>Lviv</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K4</f>
-        <v>31/1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L4</f>
-        <v>Marka</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M4</f>
-        <v>79016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="18">
-        <f>TestAccountsInfo!N4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="18">
-        <f>TestAccountsInfo!O4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P4</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q4</f>
-        <v>united kingdom</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R4</f>
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="str">
-        <f>TestAccountsInfo!C5</f>
-        <v>InterNormalTester</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <f>TestAccountsInfo!D5</f>
-        <v>Tester13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="str">
-        <f>TestAccountsInfo!E5</f>
-        <v>International Normal Tester</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>TestAccountsInfo!F5</f>
-        <v>khikmatovaj@mail.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G5</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H5</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="str">
-        <f>TestAccountsInfo!J5</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="str">
-        <f>TestAccountsInfo!K5</f>
-        <v>Full</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="str">
-        <f>TestAccountsInfo!L5</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N5</f>
-        <v>AED</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
-        <v>USD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q5</f>
-        <v>united kingdom</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R5</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -2452,8 +2201,8 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C6</f>
-        <v>InterTester</v>
+        <f>TestAccountsInfo!C4</f>
+        <v>MasterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D6</f>
+        <f>TestAccountsInfo!D4</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2470,8 +2219,8 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E6</f>
-        <v>International Reseller</v>
+        <f>TestAccountsInfo!E4</f>
+        <v>Master Tester</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,8 +2228,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F6</f>
-        <v>khikmatovaj@mail.ru</v>
+        <f>TestAccountsInfo!F4</f>
+        <v>gltesting13@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2237,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G6</f>
+        <f>TestAccountsInfo!G4</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2497,7 +2246,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H6</f>
+        <f>TestAccountsInfo!H4</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2506,8 +2255,8 @@
         <v>64</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I6</f>
-        <v>Lebanon</v>
+        <f>TestAccountsInfo!I4</f>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,8 +2264,8 @@
         <v>65</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J6</f>
-        <v>City</v>
+        <f>TestAccountsInfo!J4</f>
+        <v>Lviv</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,8 +2273,8 @@
         <v>66</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K6</f>
-        <v>Full</v>
+        <f>TestAccountsInfo!K4</f>
+        <v>31/1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,8 +2282,8 @@
         <v>68</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L6</f>
-        <v>Street</v>
+        <f>TestAccountsInfo!L4</f>
+        <v>Marka</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,8 +2291,8 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M6</f>
-        <v>00001</v>
+        <f>TestAccountsInfo!M4</f>
+        <v>79016</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2300,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18">
-        <f>TestAccountsInfo!N6</f>
+        <f>TestAccountsInfo!N4</f>
         <v>0</v>
       </c>
     </row>
@@ -2560,7 +2309,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18">
-        <f>TestAccountsInfo!O6</f>
+        <f>TestAccountsInfo!O4</f>
         <v>0</v>
       </c>
     </row>
@@ -2569,7 +2318,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P6</f>
+        <f>TestAccountsInfo!P4</f>
         <v>International English</v>
       </c>
     </row>
@@ -2578,7 +2327,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q6</f>
+        <f>TestAccountsInfo!Q4</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2587,8 +2336,17 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R6</f>
-        <v>0</v>
+        <f>TestAccountsInfo!R4</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!X4</f>
+        <v>Business name</v>
       </c>
     </row>
   </sheetData>
@@ -2597,12 +2355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,6 +2373,352 @@
       <c r="A1" t="s">
         <v>47</v>
       </c>
+      <c r="B1" t="str">
+        <f>TestAccountsInfo!C5</f>
+        <v>InterNormalTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TestAccountsInfo!E5</f>
+        <v>International Normal Tester</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TestAccountsInfo!F5</f>
+        <v>khikmatovaj@mail.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N5</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q5</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!X5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C6</f>
+        <v>InterTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D6</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E6</f>
+        <v>International Reseller</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F6</f>
+        <v>khikmatovaj@mail.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G6</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H6</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I6</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J6</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K6</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L6</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M6</f>
+        <v>00001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18">
+        <f>TestAccountsInfo!N6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18">
+        <f>TestAccountsInfo!O6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P6</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q6</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!X6</f>
+        <v>Business name</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C7</f>
         <v>InterMasterTester</v>
@@ -2753,6 +2857,15 @@
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R7</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!X7</f>
+        <v>Business name</v>
       </c>
     </row>
   </sheetData>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId9"/>
     <sheet name="Transactions" sheetId="23" r:id="rId10"/>
     <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
+    <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="105">
   <si>
     <t>%</t>
   </si>
@@ -1692,6 +1693,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="109">
   <si>
     <t>%</t>
   </si>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>testBusiness Name</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -429,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -456,6 +468,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="7"/>
       <c r="X2" s="21"/>
     </row>
@@ -969,8 +982,12 @@
       <c r="M3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="P3" s="16" t="s">
         <v>76</v>
       </c>
@@ -985,9 +1002,11 @@
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="W3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1035,8 +1054,12 @@
       <c r="M4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="P4" s="17" t="s">
         <v>76</v>
       </c>
@@ -1053,8 +1076,8 @@
       <c r="U4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="10">
-        <v>0</v>
+      <c r="V4" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>13</v>
@@ -1125,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="7"/>
       <c r="X5" s="21"/>
     </row>
@@ -1169,8 +1192,12 @@
       <c r="M6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="P6" s="16" t="s">
         <v>76</v>
       </c>
@@ -1187,8 +1214,8 @@
       <c r="U6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="8">
-        <v>5</v>
+      <c r="V6" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>15</v>
@@ -1237,8 +1264,12 @@
       <c r="M7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="P7" s="17" t="s">
         <v>76</v>
       </c>
@@ -1255,8 +1286,8 @@
       <c r="U7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="10">
-        <v>10</v>
+      <c r="V7" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>16</v>
@@ -1303,8 +1334,12 @@
       <c r="M8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -1315,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="7"/>
       <c r="X8" s="21"/>
     </row>
@@ -1357,8 +1392,12 @@
       <c r="M9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
@@ -1369,8 +1408,8 @@
       <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="8">
-        <v>0</v>
+      <c r="V9" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>18</v>
@@ -1417,8 +1456,12 @@
       <c r="M10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
@@ -1429,8 +1472,8 @@
       <c r="U10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V10" s="10">
-        <v>15</v>
+      <c r="V10" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>20</v>
@@ -1477,8 +1520,12 @@
       <c r="M11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -1489,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="7"/>
       <c r="X11" s="21"/>
     </row>
@@ -1531,8 +1578,12 @@
       <c r="M12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="N12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
@@ -1543,8 +1594,8 @@
       <c r="U12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="8">
-        <v>15</v>
+      <c r="V12" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>42</v>
@@ -1591,8 +1642,12 @@
       <c r="M13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="N13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
@@ -1603,7 +1658,7 @@
       <c r="U13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="10"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="8" t="s">
         <v>43</v>
       </c>
@@ -1841,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +2042,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TestAccountsInfo!C2</f>
+        <v>NormalTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TestAccountsInfo!D2</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TestAccountsInfo!E2</f>
+        <v>GL Testing</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TestAccountsInfo!F2</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G2</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H2</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TestAccountsInfo!I2</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TestAccountsInfo!J2</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TestAccountsInfo!K2</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TestAccountsInfo!L2</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M2</f>
+        <v>00001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N2</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O2</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P2</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q2</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!X2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="18">
+        <f>TestAccountsInfo!V2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C3</f>
+        <v>Tester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D3</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E3</f>
+        <v>GL Testing</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F3</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G3</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H3</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I3</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J3</f>
+        <v>Lviv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K3</f>
+        <v>31/1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L3</f>
+        <v>Marka Vovchka</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M3</f>
+        <v>79016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N3</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O3</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P3</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q3</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R3</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f>TestAccountsInfo!V3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="19" t="str">
+        <f>TestAccountsInfo!X3</f>
+        <v>Business name</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -2003,17 +2422,17 @@
       <c r="A1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="str">
-        <f>TestAccountsInfo!C2</f>
-        <v>NormalTester</v>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C4</f>
+        <v>MasterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="str">
-        <f>TestAccountsInfo!D2</f>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D4</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2021,17 +2440,17 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="str">
-        <f>TestAccountsInfo!E2</f>
-        <v>GL Testing</v>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E4</f>
+        <v>Master Tester</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>TestAccountsInfo!F2</f>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F4</f>
         <v>gltesting13@gmail.com</v>
       </c>
     </row>
@@ -2040,7 +2459,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G2</f>
+        <f>TestAccountsInfo!G4</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2049,7 +2468,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H2</f>
+        <f>TestAccountsInfo!H4</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2057,36 +2476,36 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="str">
-        <f>TestAccountsInfo!I2</f>
-        <v>Spain</v>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I4</f>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="str">
-        <f>TestAccountsInfo!J2</f>
-        <v>City</v>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J4</f>
+        <v>Lviv</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="str">
-        <f>TestAccountsInfo!K2</f>
-        <v>Full</v>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K4</f>
+        <v>31/1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="str">
-        <f>TestAccountsInfo!L2</f>
-        <v>Street</v>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L4</f>
+        <v>Marka</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,8 +2513,8 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M2</f>
-        <v>00001</v>
+        <f>TestAccountsInfo!M4</f>
+        <v>79016</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2522,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N2</f>
+        <f>TestAccountsInfo!N4</f>
         <v>AED</v>
       </c>
     </row>
@@ -2112,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O2</f>
+        <f>TestAccountsInfo!O4</f>
         <v>USD</v>
       </c>
     </row>
@@ -2121,7 +2540,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P2</f>
+        <f>TestAccountsInfo!P4</f>
         <v>International English</v>
       </c>
     </row>
@@ -2130,7 +2549,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q2</f>
+        <f>TestAccountsInfo!Q4</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2139,17 +2558,26 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R2</f>
+        <f>TestAccountsInfo!R4</f>
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f>TestAccountsInfo!V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="19">
-        <f>TestAccountsInfo!X2</f>
-        <v>0</v>
+      <c r="B18" s="19" t="str">
+        <f>TestAccountsInfo!X4</f>
+        <v>Business name</v>
       </c>
     </row>
   </sheetData>
@@ -2158,9 +2586,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TestAccountsInfo!C5</f>
+        <v>InterNormalTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TestAccountsInfo!E5</f>
+        <v>International Normal Tester</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TestAccountsInfo!F5</f>
+        <v>khikmatovaj@mail.ru</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H5</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N5</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q5</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!X5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="18">
+        <f>TestAccountsInfo!V5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -2177,8 +2787,8 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C3</f>
-        <v>Tester</v>
+        <f>TestAccountsInfo!C6</f>
+        <v>InterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D3</f>
+        <f>TestAccountsInfo!D6</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2195,8 +2805,8 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E3</f>
-        <v>GL Testing</v>
+        <f>TestAccountsInfo!E6</f>
+        <v>International Reseller</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,8 +2814,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F3</f>
-        <v>gltesting13@gmail.com</v>
+        <f>TestAccountsInfo!F6</f>
+        <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2823,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G3</f>
+        <f>TestAccountsInfo!G6</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2222,7 +2832,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H3</f>
+        <f>TestAccountsInfo!H6</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2231,8 +2841,8 @@
         <v>64</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I3</f>
-        <v>Spain</v>
+        <f>TestAccountsInfo!I6</f>
+        <v>Lebanon</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,8 +2850,8 @@
         <v>65</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J3</f>
-        <v>Lviv</v>
+        <f>TestAccountsInfo!J6</f>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,8 +2859,8 @@
         <v>66</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K3</f>
-        <v>31/1</v>
+        <f>TestAccountsInfo!K6</f>
+        <v>Full</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,8 +2868,8 @@
         <v>68</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L3</f>
-        <v>Marka Vovchka</v>
+        <f>TestAccountsInfo!L6</f>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,26 +2877,26 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M3</f>
-        <v>79016</v>
+        <f>TestAccountsInfo!M6</f>
+        <v>00001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="18">
-        <f>TestAccountsInfo!N3</f>
-        <v>0</v>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N6</f>
+        <v>AED</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="18">
-        <f>TestAccountsInfo!O3</f>
-        <v>0</v>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O6</f>
+        <v>USD</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2904,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P3</f>
+        <f>TestAccountsInfo!P6</f>
         <v>International English</v>
       </c>
     </row>
@@ -2303,7 +2913,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q3</f>
+        <f>TestAccountsInfo!Q6</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2312,16 +2922,25 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R3</f>
-        <v>21</v>
+        <f>TestAccountsInfo!R6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f>TestAccountsInfo!V6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="19" t="str">
-        <f>TestAccountsInfo!X3</f>
+      <c r="B18" s="19" t="str">
+        <f>TestAccountsInfo!X6</f>
         <v>Business name</v>
       </c>
     </row>
@@ -2331,12 +2950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,8 +2969,8 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C4</f>
-        <v>MasterTester</v>
+        <f>TestAccountsInfo!C7</f>
+        <v>InterMasterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D4</f>
+        <f>TestAccountsInfo!D7</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2368,8 +2987,8 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E4</f>
-        <v>Master Tester</v>
+        <f>TestAccountsInfo!E7</f>
+        <v>Inter Master</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,8 +2996,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F4</f>
-        <v>gltesting13@gmail.com</v>
+        <f>TestAccountsInfo!F7</f>
+        <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +3005,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G4</f>
+        <f>TestAccountsInfo!G7</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2395,7 +3014,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H4</f>
+        <f>TestAccountsInfo!H7</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2404,8 +3023,8 @@
         <v>64</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I4</f>
-        <v>Netherlands</v>
+        <f>TestAccountsInfo!I7</f>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,8 +3032,8 @@
         <v>65</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J4</f>
-        <v>Lviv</v>
+        <f>TestAccountsInfo!J7</f>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,8 +3041,8 @@
         <v>66</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K4</f>
-        <v>31/1</v>
+        <f>TestAccountsInfo!K7</f>
+        <v>Address</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,8 +3050,8 @@
         <v>68</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L4</f>
-        <v>Marka</v>
+        <f>TestAccountsInfo!L7</f>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,26 +3059,26 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M4</f>
-        <v>79016</v>
+        <f>TestAccountsInfo!M7</f>
+        <v>00001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="18">
-        <f>TestAccountsInfo!N4</f>
-        <v>0</v>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N7</f>
+        <v>AED</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="18">
-        <f>TestAccountsInfo!O4</f>
-        <v>0</v>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O7</f>
+        <v>USD</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P4</f>
+        <f>TestAccountsInfo!P7</f>
         <v>International English</v>
       </c>
     </row>
@@ -2476,7 +3095,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q4</f>
+        <f>TestAccountsInfo!Q7</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2485,534 +3104,24 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R4</f>
-        <v>21</v>
+        <f>TestAccountsInfo!R7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f>TestAccountsInfo!V7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="19" t="str">
-        <f>TestAccountsInfo!X4</f>
-        <v>Business name</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="str">
-        <f>TestAccountsInfo!C5</f>
-        <v>InterNormalTester</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <f>TestAccountsInfo!D5</f>
-        <v>Tester13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="str">
-        <f>TestAccountsInfo!E5</f>
-        <v>International Normal Tester</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>TestAccountsInfo!F5</f>
-        <v>khikmatovaj@mail.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G5</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H5</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="str">
-        <f>TestAccountsInfo!J5</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="str">
-        <f>TestAccountsInfo!K5</f>
-        <v>Full</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="str">
-        <f>TestAccountsInfo!L5</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N5</f>
-        <v>AED</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
-        <v>USD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q5</f>
-        <v>united kingdom</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="19">
-        <f>TestAccountsInfo!X5</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C6</f>
-        <v>InterTester</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D6</f>
-        <v>Tester13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E6</f>
-        <v>International Reseller</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F6</f>
-        <v>khikmatovaj@mail.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G6</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H6</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I6</f>
-        <v>Lebanon</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J6</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K6</f>
-        <v>Full</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L6</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M6</f>
-        <v>00001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="18">
-        <f>TestAccountsInfo!N6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="18">
-        <f>TestAccountsInfo!O6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P6</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q6</f>
-        <v>united kingdom</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="19" t="str">
-        <f>TestAccountsInfo!X6</f>
-        <v>Business name</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C7</f>
-        <v>InterMasterTester</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D7</f>
-        <v>Tester13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E7</f>
-        <v>Inter Master</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F7</f>
-        <v>khikmatovaj@mail.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G7</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H7</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I7</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J7</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K7</f>
-        <v>Address</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L7</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M7</f>
-        <v>00001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="18">
-        <f>TestAccountsInfo!N7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="18">
-        <f>TestAccountsInfo!O7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P7</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q7</f>
-        <v>united kingdom</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="19" t="str">
+      <c r="B18" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
         <v>Business name</v>
       </c>
@@ -3173,7 +3282,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="A1:XFD1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="111">
   <si>
     <t>%</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>International Tester</t>
+  </si>
+  <si>
+    <t>BonusType</t>
   </si>
 </sst>
 </file>
@@ -773,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>10</v>
@@ -1221,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1896,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2042,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,18 +2206,27 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!U2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B18" s="19">
         <f>TestAccountsInfo!X2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B19" s="18">
         <f>TestAccountsInfo!V2</f>
         <v>0</v>
       </c>
@@ -2224,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,18 +2397,27 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!U3</f>
+        <v>Manual</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V3</f>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X3</f>
         <v>Business name</v>
       </c>
@@ -2406,7 +2430,198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C4</f>
+        <v>MasterTester</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D4</f>
+        <v>Tester13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E4</f>
+        <v>Master Tester</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F4</f>
+        <v>gltesting13@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G4</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H4</f>
+        <v>+380979029368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I4</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J4</f>
+        <v>Lviv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K4</f>
+        <v>31/1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L4</f>
+        <v>Marka</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M4</f>
+        <v>79016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N4</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O4</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P4</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q4</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R4</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!U4</f>
+        <v>Manual</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="18" t="str">
+        <f>TestAccountsInfo!V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f>TestAccountsInfo!X4</f>
+        <v>Business name</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -2422,17 +2637,17 @@
       <c r="A1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C4</f>
-        <v>MasterTester</v>
+      <c r="B1" t="str">
+        <f>TestAccountsInfo!C5</f>
+        <v>InterNormalTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D4</f>
+      <c r="B2" t="str">
+        <f>TestAccountsInfo!D5</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2440,18 +2655,18 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E4</f>
-        <v>Master Tester</v>
+      <c r="B3" t="str">
+        <f>TestAccountsInfo!E5</f>
+        <v>International Normal Tester</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F4</f>
-        <v>gltesting13@gmail.com</v>
+      <c r="B4" t="str">
+        <f>TestAccountsInfo!F5</f>
+        <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,7 +2674,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G4</f>
+        <f>TestAccountsInfo!G5</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2468,7 +2683,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H4</f>
+        <f>TestAccountsInfo!H5</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2476,36 +2691,36 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I4</f>
-        <v>Netherlands</v>
+      <c r="B7" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J4</f>
-        <v>Lviv</v>
+      <c r="B8" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K4</f>
-        <v>31/1</v>
+      <c r="B9" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L4</f>
-        <v>Marka</v>
+      <c r="B10" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,8 +2728,8 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M4</f>
-        <v>79016</v>
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2737,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N4</f>
+        <f>TestAccountsInfo!N5</f>
         <v>AED</v>
       </c>
     </row>
@@ -2531,7 +2746,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O4</f>
+        <f>TestAccountsInfo!O5</f>
         <v>USD</v>
       </c>
     </row>
@@ -2540,7 +2755,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P4</f>
+        <f>TestAccountsInfo!P5</f>
         <v>International English</v>
       </c>
     </row>
@@ -2549,7 +2764,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q4</f>
+        <f>TestAccountsInfo!Q5</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2558,26 +2773,35 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R4</f>
-        <v>21</v>
+        <f>TestAccountsInfo!R5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="18" t="str">
-        <f>TestAccountsInfo!V4</f>
+        <v>102</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!X5</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="19" t="str">
-        <f>TestAccountsInfo!X4</f>
-        <v>Business name</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="19">
+        <f>TestAccountsInfo!U5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="18">
+        <f>TestAccountsInfo!V5</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2586,12 +2810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,17 +2828,17 @@
       <c r="A1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="str">
-        <f>TestAccountsInfo!C5</f>
-        <v>InterNormalTester</v>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C6</f>
+        <v>InterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="str">
-        <f>TestAccountsInfo!D5</f>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D6</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2622,17 +2846,17 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="str">
-        <f>TestAccountsInfo!E5</f>
-        <v>International Normal Tester</v>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E6</f>
+        <v>International Tester</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>TestAccountsInfo!F5</f>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F6</f>
         <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
@@ -2641,7 +2865,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G5</f>
+        <f>TestAccountsInfo!G6</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2650,7 +2874,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H5</f>
+        <f>TestAccountsInfo!H6</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2658,17 +2882,17 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I6</f>
+        <v>Lebanon</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="str">
-        <f>TestAccountsInfo!J5</f>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J6</f>
         <v>City</v>
       </c>
     </row>
@@ -2676,8 +2900,8 @@
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="str">
-        <f>TestAccountsInfo!K5</f>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K6</f>
         <v>Full</v>
       </c>
     </row>
@@ -2685,8 +2909,8 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="str">
-        <f>TestAccountsInfo!L5</f>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L6</f>
         <v>Street</v>
       </c>
     </row>
@@ -2695,8 +2919,8 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
+        <f>TestAccountsInfo!M6</f>
+        <v>00001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2928,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N5</f>
+        <f>TestAccountsInfo!N6</f>
         <v>AED</v>
       </c>
     </row>
@@ -2713,7 +2937,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
+        <f>TestAccountsInfo!O6</f>
         <v>USD</v>
       </c>
     </row>
@@ -2722,7 +2946,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
+        <f>TestAccountsInfo!P6</f>
         <v>International English</v>
       </c>
     </row>
@@ -2731,7 +2955,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q5</f>
+        <f>TestAccountsInfo!Q6</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2740,26 +2964,35 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R5</f>
+        <f>TestAccountsInfo!R6</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="19">
-        <f>TestAccountsInfo!X5</f>
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!U6</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="18">
-        <f>TestAccountsInfo!V5</f>
-        <v>0</v>
+      <c r="B18" s="18" t="str">
+        <f>TestAccountsInfo!V6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f>TestAccountsInfo!X6</f>
+        <v>International Reseller</v>
       </c>
     </row>
   </sheetData>
@@ -2768,9 +3001,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -2787,8 +3020,8 @@
         <v>47</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C6</f>
-        <v>InterTester</v>
+        <f>TestAccountsInfo!C7</f>
+        <v>InterMasterTester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D6</f>
+        <f>TestAccountsInfo!D7</f>
         <v>Tester13</v>
       </c>
     </row>
@@ -2805,8 +3038,8 @@
         <v>60</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E6</f>
-        <v>International Reseller</v>
+        <f>TestAccountsInfo!E7</f>
+        <v>Inter Master</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F6</f>
+        <f>TestAccountsInfo!F7</f>
         <v>khikmatovaj@mail.ru</v>
       </c>
     </row>
@@ -2823,7 +3056,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G6</f>
+        <f>TestAccountsInfo!G7</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2832,7 +3065,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H6</f>
+        <f>TestAccountsInfo!H7</f>
         <v>+380979029368</v>
       </c>
     </row>
@@ -2841,8 +3074,8 @@
         <v>64</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I6</f>
-        <v>Lebanon</v>
+        <f>TestAccountsInfo!I7</f>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +3083,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J6</f>
+        <f>TestAccountsInfo!J7</f>
         <v>City</v>
       </c>
     </row>
@@ -2859,8 +3092,8 @@
         <v>66</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K6</f>
-        <v>Full</v>
+        <f>TestAccountsInfo!K7</f>
+        <v>Address</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L6</f>
+        <f>TestAccountsInfo!L7</f>
         <v>Street</v>
       </c>
     </row>
@@ -2877,7 +3110,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M6</f>
+        <f>TestAccountsInfo!M7</f>
         <v>00001</v>
       </c>
     </row>
@@ -2886,7 +3119,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N6</f>
+        <f>TestAccountsInfo!N7</f>
         <v>AED</v>
       </c>
     </row>
@@ -2895,7 +3128,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O6</f>
+        <f>TestAccountsInfo!O7</f>
         <v>USD</v>
       </c>
     </row>
@@ -2904,7 +3137,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P6</f>
+        <f>TestAccountsInfo!P7</f>
         <v>International English</v>
       </c>
     </row>
@@ -2913,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q6</f>
+        <f>TestAccountsInfo!Q7</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2922,206 +3155,33 @@
         <v>84</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R6</f>
+        <f>TestAccountsInfo!R7</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="18" t="str">
-        <f>TestAccountsInfo!V6</f>
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!U7</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="19" t="str">
-        <f>TestAccountsInfo!X6</f>
-        <v>Business name</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C7</f>
-        <v>InterMasterTester</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D7</f>
-        <v>Tester13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E7</f>
-        <v>Inter Master</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F7</f>
-        <v>khikmatovaj@mail.ru</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G7</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H7</f>
-        <v>+380979029368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I7</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J7</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K7</f>
-        <v>Address</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L7</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M7</f>
-        <v>00001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N7</f>
-        <v>AED</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O7</f>
-        <v>USD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P7</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q7</f>
-        <v>united kingdom</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
         <v>Business name</v>
       </c>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="116">
   <si>
     <t>%</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Reseller</t>
   </si>
   <si>
-    <t>khikmatovaj@mail.ru</t>
-  </si>
-  <si>
     <t>gl.test@mail.ru</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>InterTester</t>
   </si>
   <si>
-    <t>InterMasterTester</t>
-  </si>
-  <si>
     <t>AdyenNormalTester</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Inter Master</t>
-  </si>
-  <si>
     <t>testUsername</t>
   </si>
   <si>
@@ -354,10 +345,34 @@
     <t>15</t>
   </si>
   <si>
-    <t>International Tester</t>
-  </si>
-  <si>
     <t>BonusType</t>
+  </si>
+  <si>
+    <t>iuliia.1</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>gltesting17@gmail.com</t>
+  </si>
+  <si>
+    <t>iuliia.2</t>
+  </si>
+  <si>
+    <t>789456123</t>
+  </si>
+  <si>
+    <t>International Master Reseller</t>
+  </si>
+  <si>
+    <t>iuliia.3</t>
+  </si>
+  <si>
+    <t>Business Name</t>
   </si>
 </sst>
 </file>
@@ -779,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,132 +831,132 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="Q1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="L2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="Q2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="S2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="22"/>
@@ -950,205 +965,205 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="M3" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="Q3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="S3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>76</v>
-      </c>
       <c r="Q4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="S4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>8</v>
@@ -1160,197 +1175,197 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="L8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="O8" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>8</v>
@@ -1362,181 +1377,181 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="L9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="L10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="N10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="L11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>8</v>
@@ -1548,133 +1563,133 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="L12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="L13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="O13" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -1684,7 +1699,7 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1723,26 +1738,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1766,10 +1781,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,15 +1793,15 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D5</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,28 +1809,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -1824,7 +1839,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -1833,7 +1848,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -1842,7 +1857,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -1851,7 +1866,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -1860,15 +1875,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -1877,7 +1892,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -1886,10 +1901,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1914,10 +1929,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,15 +1941,15 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D5</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,28 +1957,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -1972,7 +1987,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -1981,7 +1996,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -1990,7 +2005,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -1999,7 +2014,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -2008,15 +2023,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -2025,7 +2040,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -2034,10 +2049,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2077,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
@@ -2080,7 +2095,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
@@ -2098,7 +2113,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G2</f>
@@ -2107,7 +2122,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H2</f>
@@ -2116,7 +2131,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I2</f>
@@ -2125,7 +2140,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J2</f>
@@ -2134,7 +2149,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K2</f>
@@ -2143,7 +2158,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L2</f>
@@ -2152,7 +2167,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M2</f>
@@ -2161,7 +2176,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N2</f>
@@ -2170,7 +2185,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O2</f>
@@ -2179,7 +2194,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P2</f>
@@ -2188,7 +2203,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q2</f>
@@ -2197,7 +2212,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R2</f>
@@ -2206,7 +2221,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="19">
         <f>TestAccountsInfo!U2</f>
@@ -2215,7 +2230,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" s="19">
         <f>TestAccountsInfo!X2</f>
@@ -2224,7 +2239,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" s="18">
         <f>TestAccountsInfo!V2</f>
@@ -2253,7 +2268,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C3</f>
@@ -2271,7 +2286,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E3</f>
@@ -2289,7 +2304,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G3</f>
@@ -2298,7 +2313,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H3</f>
@@ -2307,7 +2322,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I3</f>
@@ -2316,7 +2331,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J3</f>
@@ -2325,7 +2340,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K3</f>
@@ -2334,7 +2349,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L3</f>
@@ -2343,7 +2358,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M3</f>
@@ -2352,7 +2367,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N3</f>
@@ -2361,7 +2376,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O3</f>
@@ -2370,7 +2385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P3</f>
@@ -2379,7 +2394,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q3</f>
@@ -2388,7 +2403,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R3</f>
@@ -2397,7 +2412,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U3</f>
@@ -2406,7 +2421,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V3</f>
@@ -2415,7 +2430,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X3</f>
@@ -2444,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C4</f>
@@ -2462,7 +2477,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E4</f>
@@ -2480,7 +2495,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G4</f>
@@ -2489,7 +2504,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H4</f>
@@ -2498,7 +2513,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I4</f>
@@ -2507,7 +2522,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J4</f>
@@ -2516,7 +2531,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K4</f>
@@ -2525,7 +2540,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L4</f>
@@ -2534,7 +2549,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M4</f>
@@ -2543,7 +2558,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N4</f>
@@ -2552,7 +2567,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O4</f>
@@ -2561,7 +2576,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P4</f>
@@ -2570,7 +2585,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q4</f>
@@ -2579,7 +2594,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R4</f>
@@ -2588,7 +2603,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U4</f>
@@ -2597,7 +2612,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V4</f>
@@ -2606,7 +2621,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X4</f>
@@ -2630,16 +2645,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C5</f>
-        <v>InterNormalTester</v>
+        <v>iuliia.1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,12 +2663,12 @@
       </c>
       <c r="B2" t="str">
         <f>TestAccountsInfo!D5</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E5</f>
@@ -2666,30 +2681,30 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F5</f>
-        <v>khikmatovaj@mail.ru</v>
+        <v>gltesting17@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G5</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H5</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -2698,7 +2713,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -2707,7 +2722,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -2716,7 +2731,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -2725,7 +2740,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -2734,7 +2749,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N5</f>
@@ -2743,7 +2758,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -2752,7 +2767,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -2761,7 +2776,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q5</f>
@@ -2770,7 +2785,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R5</f>
@@ -2779,7 +2794,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" s="19">
         <f>TestAccountsInfo!X5</f>
@@ -2788,7 +2803,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B18" s="19">
         <f>TestAccountsInfo!U5</f>
@@ -2797,7 +2812,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" s="18">
         <f>TestAccountsInfo!V5</f>
@@ -2826,11 +2841,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C6</f>
-        <v>InterTester</v>
+        <v>iuliia.2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,16 +2854,16 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D6</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E6</f>
-        <v>International Tester</v>
+        <v>International Reseller</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,30 +2872,30 @@
       </c>
       <c r="B4" s="19" t="str">
         <f>TestAccountsInfo!F6</f>
-        <v>khikmatovaj@mail.ru</v>
+        <v>gltesting17@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G6</f>
-        <v>+380979029368</v>
+        <v>789456123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H6</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I6</f>
@@ -2889,7 +2904,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J6</f>
@@ -2898,7 +2913,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K6</f>
@@ -2907,7 +2922,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L6</f>
@@ -2916,7 +2931,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M6</f>
@@ -2925,7 +2940,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N6</f>
@@ -2934,7 +2949,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O6</f>
@@ -2943,7 +2958,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P6</f>
@@ -2952,7 +2967,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q6</f>
@@ -2961,7 +2976,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R6</f>
@@ -2970,7 +2985,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U6</f>
@@ -2979,7 +2994,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V6</f>
@@ -2988,11 +3003,11 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X6</f>
-        <v>International Reseller</v>
+        <v>Business name</v>
       </c>
     </row>
   </sheetData>
@@ -3017,11 +3032,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C7</f>
-        <v>InterMasterTester</v>
+        <v>iuliia.3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3030,16 +3045,16 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D7</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E7</f>
-        <v>Inter Master</v>
+        <v>International Master Reseller</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,30 +3063,30 @@
       </c>
       <c r="B4" s="19" t="str">
         <f>TestAccountsInfo!F7</f>
-        <v>khikmatovaj@mail.ru</v>
+        <v>gltesting17@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G7</f>
-        <v>+380979029368</v>
+        <v>789456123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H7</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I7</f>
@@ -3080,7 +3095,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J7</f>
@@ -3089,7 +3104,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K7</f>
@@ -3098,7 +3113,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L7</f>
@@ -3107,7 +3122,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M7</f>
@@ -3116,7 +3131,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N7</f>
@@ -3125,7 +3140,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O7</f>
@@ -3134,7 +3149,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P7</f>
@@ -3143,7 +3158,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q7</f>
@@ -3152,7 +3167,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R7</f>
@@ -3161,7 +3176,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U7</f>
@@ -3170,7 +3185,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
@@ -3179,11 +3194,11 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
-        <v>Business name</v>
+        <v>Business Name</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
@@ -3226,7 +3241,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
@@ -3244,7 +3259,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G2</f>
@@ -3253,7 +3268,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H2</f>
@@ -3262,7 +3277,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I2</f>
@@ -3271,7 +3286,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J2</f>
@@ -3280,7 +3295,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K2</f>
@@ -3289,7 +3304,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L2</f>
@@ -3298,7 +3313,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M2</f>
@@ -3307,7 +3322,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N2</f>
@@ -3316,7 +3331,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O2</f>
@@ -3325,7 +3340,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P2</f>
@@ -3353,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C2</f>
@@ -3366,12 +3381,12 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D5</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E5</f>
@@ -3384,30 +3399,30 @@
       </c>
       <c r="B4" s="19" t="str">
         <f>TestAccountsInfo!F5</f>
-        <v>khikmatovaj@mail.ru</v>
+        <v>gltesting17@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19" t="str">
         <f>TestAccountsInfo!G5</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="19" t="str">
         <f>TestAccountsInfo!H5</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -3416,7 +3431,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -3425,7 +3440,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -3434,7 +3449,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -3443,7 +3458,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -3452,7 +3467,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N5</f>
@@ -3461,7 +3476,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -3470,7 +3485,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -14,18 +14,15 @@
     <sheet name="InterNormalWhitelist" sheetId="27" r:id="rId5"/>
     <sheet name="InterReseller" sheetId="28" r:id="rId6"/>
     <sheet name="InterMasterReseller" sheetId="29" r:id="rId7"/>
-    <sheet name="EuroNormalWhitelistGC" sheetId="21" r:id="rId8"/>
-    <sheet name="InterNormalNormallistGC" sheetId="22" r:id="rId9"/>
-    <sheet name="Transactions" sheetId="23" r:id="rId10"/>
-    <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
-    <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
+    <sheet name="SignUpNormalUser" sheetId="30" r:id="rId8"/>
+    <sheet name="SignUpReseller" sheetId="31" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="110">
   <si>
     <t>%</t>
   </si>
@@ -66,9 +63,6 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>MasterTester</t>
-  </si>
-  <si>
     <t>InterNormalTester</t>
   </si>
   <si>
@@ -252,21 +246,6 @@
     <t>International English</t>
   </si>
   <si>
-    <t>normaltester</t>
-  </si>
-  <si>
-    <t>3374087424</t>
-  </si>
-  <si>
-    <t>3342139392</t>
-  </si>
-  <si>
-    <t>3357301952</t>
-  </si>
-  <si>
-    <t>GL Testing</t>
-  </si>
-  <si>
     <t>GeoIpCountry</t>
   </si>
   <si>
@@ -279,24 +258,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>79016</t>
-  </si>
-  <si>
-    <t>Lviv</t>
-  </si>
-  <si>
-    <t>31/1</t>
-  </si>
-  <si>
-    <t>Marka Vovchka</t>
-  </si>
-  <si>
-    <t>Master Tester</t>
-  </si>
-  <si>
-    <t>Marka</t>
-  </si>
-  <si>
     <t>International Normal Tester</t>
   </si>
   <si>
@@ -373,6 +334,24 @@
   </si>
   <si>
     <t>Business Name</t>
+  </si>
+  <si>
+    <t>iuliia.4</t>
+  </si>
+  <si>
+    <t>iuliia.5</t>
+  </si>
+  <si>
+    <t>iuliia.6</t>
+  </si>
+  <si>
+    <t>European Normal Tester</t>
+  </si>
+  <si>
+    <t>European Reseller</t>
+  </si>
+  <si>
+    <t>European Master Reseller</t>
   </si>
 </sst>
 </file>
@@ -794,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,132 +810,132 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="22"/>
@@ -965,205 +944,205 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="M5" s="15" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>8</v>
@@ -1175,157 +1154,157 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="M6" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="V7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
@@ -1335,37 +1314,37 @@
         <v>10</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="M8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>8</v>
@@ -1377,13 +1356,13 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>5</v>
@@ -1393,61 +1372,61 @@
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="M9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
@@ -1457,101 +1436,101 @@
         <v>10</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="M10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="M11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>8</v>
@@ -1563,133 +1542,133 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="M12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="J13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="M13" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -1699,7 +1678,7 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1722,345 +1701,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D5</f>
-        <v>password</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J5</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K5</f>
-        <v>Full</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L5</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
-        <v>USD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D5</f>
-        <v>password</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J5</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K5</f>
-        <v>Full</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L5</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
-        <v>USD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
@@ -2077,11 +1717,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
-        <v>NormalTester</v>
+        <v>iuliia.4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2090,16 +1730,16 @@
       </c>
       <c r="B2" t="str">
         <f>TestAccountsInfo!D2</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
-        <v>GL Testing</v>
+        <v>European Normal Tester</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,25 +1753,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G2</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H2</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I2</f>
@@ -2140,7 +1780,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J2</f>
@@ -2149,7 +1789,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K2</f>
@@ -2158,7 +1798,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L2</f>
@@ -2167,7 +1807,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M2</f>
@@ -2176,7 +1816,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N2</f>
@@ -2185,7 +1825,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O2</f>
@@ -2194,7 +1834,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P2</f>
@@ -2203,7 +1843,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q2</f>
@@ -2212,7 +1852,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R2</f>
@@ -2221,7 +1861,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="19">
         <f>TestAccountsInfo!U2</f>
@@ -2230,7 +1870,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B18" s="19">
         <f>TestAccountsInfo!X2</f>
@@ -2239,7 +1879,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B19" s="18">
         <f>TestAccountsInfo!V2</f>
@@ -2268,11 +1908,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C3</f>
-        <v>Tester</v>
+        <v>iuliia.5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,16 +1921,16 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D3</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E3</f>
-        <v>GL Testing</v>
+        <v>European Reseller</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,25 +1944,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G3</f>
-        <v>+380979029368</v>
+        <v>789456123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H3</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I3</f>
@@ -2331,43 +1971,43 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J3</f>
-        <v>Lviv</v>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K3</f>
-        <v>31/1</v>
+        <v>Full</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L3</f>
-        <v>Marka Vovchka</v>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M3</f>
-        <v>79016</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N3</f>
@@ -2376,7 +2016,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O3</f>
@@ -2385,7 +2025,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P3</f>
@@ -2394,7 +2034,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q3</f>
@@ -2403,7 +2043,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R3</f>
@@ -2412,7 +2052,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U3</f>
@@ -2421,7 +2061,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V3</f>
@@ -2430,7 +2070,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X3</f>
@@ -2459,11 +2099,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C4</f>
-        <v>MasterTester</v>
+        <v>iuliia.6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,16 +2112,16 @@
       </c>
       <c r="B2" s="19" t="str">
         <f>TestAccountsInfo!D4</f>
-        <v>Tester13</v>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E4</f>
-        <v>Master Tester</v>
+        <v>European Master Reseller</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,25 +2135,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G4</f>
-        <v>+380979029368</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H4</f>
-        <v>+380979029368</v>
+        <v>789456123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I4</f>
@@ -2522,43 +2162,43 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J4</f>
-        <v>Lviv</v>
+        <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K4</f>
-        <v>31/1</v>
+        <v>Full</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L4</f>
-        <v>Marka</v>
+        <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M4</f>
-        <v>79016</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N4</f>
@@ -2567,7 +2207,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O4</f>
@@ -2576,7 +2216,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P4</f>
@@ -2585,7 +2225,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q4</f>
@@ -2594,7 +2234,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R4</f>
@@ -2603,7 +2243,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U4</f>
@@ -2612,7 +2252,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V4</f>
@@ -2621,11 +2261,11 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X4</f>
-        <v>Business name</v>
+        <v>Business Name</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2290,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C5</f>
@@ -2668,7 +2308,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E5</f>
@@ -2686,7 +2326,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G5</f>
@@ -2695,7 +2335,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H5</f>
@@ -2704,7 +2344,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -2713,7 +2353,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -2722,7 +2362,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -2731,7 +2371,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -2740,7 +2380,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -2749,7 +2389,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N5</f>
@@ -2758,7 +2398,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -2767,7 +2407,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -2776,7 +2416,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q5</f>
@@ -2785,7 +2425,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R5</f>
@@ -2794,7 +2434,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B17" s="19">
         <f>TestAccountsInfo!X5</f>
@@ -2803,7 +2443,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B18" s="19">
         <f>TestAccountsInfo!U5</f>
@@ -2812,7 +2452,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B19" s="18">
         <f>TestAccountsInfo!V5</f>
@@ -2841,7 +2481,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C6</f>
@@ -2859,7 +2499,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E6</f>
@@ -2877,7 +2517,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G6</f>
@@ -2886,7 +2526,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H6</f>
@@ -2895,7 +2535,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I6</f>
@@ -2904,7 +2544,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J6</f>
@@ -2913,7 +2553,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K6</f>
@@ -2922,7 +2562,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L6</f>
@@ -2931,7 +2571,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M6</f>
@@ -2940,7 +2580,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N6</f>
@@ -2949,7 +2589,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O6</f>
@@ -2958,7 +2598,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P6</f>
@@ -2967,7 +2607,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q6</f>
@@ -2976,7 +2616,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R6</f>
@@ -2985,7 +2625,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U6</f>
@@ -2994,7 +2634,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V6</f>
@@ -3003,7 +2643,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X6</f>
@@ -3032,7 +2672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C7</f>
@@ -3050,7 +2690,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E7</f>
@@ -3068,7 +2708,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G7</f>
@@ -3077,7 +2717,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H7</f>
@@ -3086,7 +2726,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I7</f>
@@ -3095,7 +2735,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J7</f>
@@ -3104,7 +2744,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K7</f>
@@ -3113,7 +2753,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L7</f>
@@ -3122,7 +2762,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M7</f>
@@ -3131,7 +2771,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N7</f>
@@ -3140,7 +2780,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O7</f>
@@ -3149,7 +2789,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P7</f>
@@ -3158,7 +2798,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q7</f>
@@ -3167,7 +2807,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R7</f>
@@ -3176,7 +2816,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U7</f>
@@ -3185,7 +2825,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
@@ -3194,7 +2834,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
@@ -3209,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,141 +2863,144 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="str">
-        <f>TestAccountsInfo!C2</f>
-        <v>NormalTester</v>
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="str">
-        <f>TestAccountsInfo!D2</f>
-        <v>Tester13</v>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>password</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="str">
-        <f>TestAccountsInfo!E2</f>
-        <v>GL Testing</v>
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>TestAccountsInfo!F2</f>
-        <v>gltesting13@gmail.com</v>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G2</f>
-        <v>+380979029368</v>
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H2</f>
-        <v>+380979029368</v>
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="str">
-        <f>TestAccountsInfo!I2</f>
-        <v>Spain</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="str">
-        <f>TestAccountsInfo!J2</f>
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J5</f>
         <v>City</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="str">
-        <f>TestAccountsInfo!K2</f>
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K5</f>
         <v>Full</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="str">
-        <f>TestAccountsInfo!L2</f>
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L5</f>
         <v>Street</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M2</f>
-        <v>00001</v>
+        <v>66</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N2</f>
-        <v>AED</v>
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O2</f>
+        <f>TestAccountsInfo!O5</f>
         <v>USD</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P2</f>
+        <f>TestAccountsInfo!P5</f>
         <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,11 +3011,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C2</f>
-        <v>NormalTester</v>
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3386,43 +3028,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E5</f>
-        <v>International Normal Tester</v>
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F5</f>
-        <v>gltesting17@gmail.com</v>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="19" t="str">
-        <f>TestAccountsInfo!G5</f>
-        <v>123456789</v>
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="19" t="str">
-        <f>TestAccountsInfo!H5</f>
-        <v>123456789</v>
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -3431,7 +3069,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -3440,7 +3078,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -3449,7 +3087,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -3458,7 +3096,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -3467,16 +3105,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N5</f>
-        <v>AED</v>
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -3485,14 +3122,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
         <v>International English</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>14</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -14,15 +14,18 @@
     <sheet name="InterNormalWhitelist" sheetId="27" r:id="rId5"/>
     <sheet name="InterReseller" sheetId="28" r:id="rId6"/>
     <sheet name="InterMasterReseller" sheetId="29" r:id="rId7"/>
-    <sheet name="SignUpNormalUser" sheetId="30" r:id="rId8"/>
-    <sheet name="SignUpReseller" sheetId="31" r:id="rId9"/>
+    <sheet name="RecurrentNormalWhitelist" sheetId="32" r:id="rId8"/>
+    <sheet name="RecurrectReseller" sheetId="33" r:id="rId9"/>
+    <sheet name="RecurrentMasterReseller" sheetId="34" r:id="rId10"/>
+    <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
+    <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="121">
   <si>
     <t>%</t>
   </si>
@@ -352,6 +355,39 @@
   </si>
   <si>
     <t>European Master Reseller</t>
+  </si>
+  <si>
+    <t>Recurrect Normal Account</t>
+  </si>
+  <si>
+    <t>Recurrect Reseller Account</t>
+  </si>
+  <si>
+    <t>Recurrect Master Reseller Account</t>
+  </si>
+  <si>
+    <t>iuliia.7</t>
+  </si>
+  <si>
+    <t>iuliia.8</t>
+  </si>
+  <si>
+    <t>iuliia.9</t>
+  </si>
+  <si>
+    <t>RecurrectNormalAccount</t>
+  </si>
+  <si>
+    <t>RecurrectResellerAccount</t>
+  </si>
+  <si>
+    <t>RecurrectMasterResellerAccount</t>
+  </si>
+  <si>
+    <t>gltesting19@gmail.com</t>
+  </si>
+  <si>
+    <t>Estonia</t>
   </si>
 </sst>
 </file>
@@ -467,8 +503,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +973,12 @@
       <c r="T2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="22"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="W2" s="7"/>
-      <c r="X2" s="21"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1010,7 +1048,7 @@
       <c r="W3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1082,7 +1120,7 @@
       <c r="W4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1147,10 +1185,12 @@
       <c r="T5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="22"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="W5" s="7"/>
-      <c r="X5" s="21"/>
+      <c r="X5" s="22"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1220,7 +1260,7 @@
       <c r="W6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1292,35 +1332,37 @@
       <c r="W7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>62</v>
@@ -1332,7 +1374,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>69</v>
@@ -1340,45 +1382,55 @@
       <c r="O8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="P8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="S8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="22"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="W8" s="7"/>
-      <c r="X8" s="21"/>
+      <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>62</v>
@@ -1398,57 +1450,65 @@
       <c r="O9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="P9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="S9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="F10" s="11" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>65</v>
@@ -1462,11 +1522,17 @@
       <c r="O10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="P10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="S10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="10" t="s">
@@ -1476,28 +1542,28 @@
         <v>93</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>59</v>
@@ -1506,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>62</v>
@@ -1530,32 +1596,34 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="22"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="W11" s="7"/>
-      <c r="X11" s="21"/>
+      <c r="X11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>59</v>
@@ -1564,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>62</v>
@@ -1588,38 +1656,38 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>59</v>
@@ -1628,7 +1696,7 @@
         <v>59</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>62</v>
@@ -1656,28 +1724,218 @@
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="22"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="8" t="s">
+      <c r="V16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="W16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X16" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1689,24 +1947,27 @@
     <hyperlink ref="F5" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F8" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="F10" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,6 +1980,493 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C7</f>
+        <v>iuliia.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D7</f>
+        <v>password</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E7</f>
+        <v>International Master Reseller</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F7</f>
+        <v>gltesting17@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G7</f>
+        <v>789456123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H7</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I7</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J7</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K7</f>
+        <v>Address</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L7</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M7</f>
+        <v>00001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N7</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O7</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P7</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q7</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!U7</f>
+        <v>Manual</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="18" t="str">
+        <f>TestAccountsInfo!V7</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f>TestAccountsInfo!X7</f>
+        <v>Business Name</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>password</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>TestAccountsInfo!D5</f>
+        <v>password</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I5</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J5</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K5</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L5</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TestAccountsInfo!M5</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O5</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P5</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
         <v>iuliia.4</v>
@@ -1863,7 +2611,7 @@
       <c r="A17" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>TestAccountsInfo!U2</f>
         <v>0</v>
       </c>
@@ -1872,7 +2620,7 @@
       <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>TestAccountsInfo!X2</f>
         <v>0</v>
       </c>
@@ -1881,7 +2629,7 @@
       <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V2</f>
         <v>0</v>
       </c>
@@ -2279,7 +3027,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,7 +3184,7 @@
       <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>TestAccountsInfo!X5</f>
         <v>0</v>
       </c>
@@ -2445,7 +3193,7 @@
       <c r="A18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>TestAccountsInfo!U5</f>
         <v>0</v>
       </c>
@@ -2454,7 +3202,7 @@
       <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V5</f>
         <v>0</v>
       </c>
@@ -2470,7 +3218,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,10 +3597,201 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TestAccountsInfo!C8</f>
+        <v>iuliia.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TestAccountsInfo!D8</f>
+        <v>password</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TestAccountsInfo!E8</f>
+        <v>Recurrect Normal Account</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TestAccountsInfo!F8</f>
+        <v>gltesting19@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G8</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H8</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TestAccountsInfo!I8</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TestAccountsInfo!J8</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TestAccountsInfo!K8</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TestAccountsInfo!L8</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M8</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N8</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O8</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P8</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q8</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="19">
+        <f>TestAccountsInfo!X8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="19">
+        <f>TestAccountsInfo!U8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="18" t="str">
+        <f>TestAccountsInfo!V8</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,8 +3804,9 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>83</v>
+      <c r="B1" s="19" t="str">
+        <f>TestAccountsInfo!C9</f>
+        <v>iuliia.8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D5</f>
+        <f>TestAccountsInfo!D9</f>
         <v>password</v>
       </c>
     </row>
@@ -2882,32 +3822,36 @@
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>84</v>
+      <c r="B3" s="19" t="str">
+        <f>TestAccountsInfo!E9</f>
+        <v>Recurrect Reseller Account</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>86</v>
+      <c r="B4" s="19" t="str">
+        <f>TestAccountsInfo!F9</f>
+        <v>gltesting19@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>85</v>
+      <c r="B5" s="18" t="str">
+        <f>TestAccountsInfo!G9</f>
+        <v>789456123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>85</v>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H9</f>
+        <v>123456789</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,8 +3859,8 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
+        <f>TestAccountsInfo!I9</f>
+        <v>Estonia</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +3868,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J5</f>
+        <f>TestAccountsInfo!J9</f>
         <v>City</v>
       </c>
     </row>
@@ -2933,7 +3877,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K5</f>
+        <f>TestAccountsInfo!K9</f>
         <v>Full</v>
       </c>
     </row>
@@ -2942,7 +3886,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L5</f>
+        <f>TestAccountsInfo!L9</f>
         <v>Street</v>
       </c>
     </row>
@@ -2950,17 +3894,18 @@
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
+      <c r="B11" s="18" t="str">
+        <f>TestAccountsInfo!M9</f>
+        <v>00001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>71</v>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N9</f>
+        <v>AED</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +3913,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
+        <f>TestAccountsInfo!O9</f>
         <v>USD</v>
       </c>
     </row>
@@ -2977,164 +3922,53 @@
         <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
+        <f>TestAccountsInfo!P9</f>
         <v>International English</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q9</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>TestAccountsInfo!R9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>TestAccountsInfo!U9</f>
+        <v>Manual</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="18" t="str">
+        <f>TestAccountsInfo!V9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D5</f>
-        <v>password</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I5</f>
-        <v>United Arab Emirates</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J5</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K5</f>
-        <v>Full</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L5</f>
-        <v>Street</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="str">
-        <f>TestAccountsInfo!M5</f>
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O5</f>
-        <v>USD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P5</f>
-        <v>International English</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>89</v>
+      <c r="B19" s="18" t="str">
+        <f>TestAccountsInfo!X9</f>
+        <v>Business name</v>
       </c>
     </row>
   </sheetData>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3600,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3757,7 @@
       <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>TestAccountsInfo!X8</f>
         <v>0</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="A18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>TestAccountsInfo!U8</f>
         <v>0</v>
       </c>
@@ -3790,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -14,9 +14,9 @@
     <sheet name="InterNormalWhitelist" sheetId="27" r:id="rId5"/>
     <sheet name="InterReseller" sheetId="28" r:id="rId6"/>
     <sheet name="InterMasterReseller" sheetId="29" r:id="rId7"/>
-    <sheet name="RecurrentNormalWhitelist" sheetId="32" r:id="rId8"/>
-    <sheet name="RecurrectReseller" sheetId="33" r:id="rId9"/>
-    <sheet name="RecurrentMasterReseller" sheetId="34" r:id="rId10"/>
+    <sheet name="RecurrentEuroNormalWhitelist" sheetId="32" r:id="rId8"/>
+    <sheet name="RecurrectEuroReseller" sheetId="33" r:id="rId9"/>
+    <sheet name="RecurrentEuroMasterReseller" sheetId="34" r:id="rId10"/>
     <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
     <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="122">
   <si>
     <t>%</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Estonia</t>
+  </si>
+  <si>
+    <t>Greece</t>
   </si>
 </sst>
 </file>
@@ -809,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1365,7 @@
         <v>96</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>62</v>
@@ -1502,7 +1505,7 @@
         <v>96</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
@@ -1545,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3600,7 +3603,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I8</f>
-        <v>United Arab Emirates</v>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -813,7 +813,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1392,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1460,7 +1460,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1532,7 +1532,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R8</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R9</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="RecurrentEuroMasterReseller" sheetId="34" r:id="rId10"/>
     <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
     <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
+    <sheet name="NymgoNormalEuroUser" sheetId="35" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="127">
   <si>
     <t>%</t>
   </si>
@@ -391,6 +392,21 @@
   </si>
   <si>
     <t>Greece</t>
+  </si>
+  <si>
+    <t>dealtester</t>
+  </si>
+  <si>
+    <t>dealtester@mail.ru</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>Deal tester</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -480,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -508,6 +524,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2161,7 +2178,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,6 +2469,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H9</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I9</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J9</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K9</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L9</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N9</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O9</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P9</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q9</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
@@ -3794,7 +3994,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="126">
   <si>
     <t>%</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>VAT</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>International Normal Tester</t>
@@ -829,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +926,7 @@
         <v>38</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -940,22 +937,22 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>24</v>
@@ -985,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
@@ -995,7 +992,7 @@
       </c>
       <c r="U2" s="21"/>
       <c r="V2" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="22"/>
@@ -1008,22 +1005,22 @@
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
@@ -1038,7 +1035,7 @@
         <v>65</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>69</v>
@@ -1052,8 +1049,8 @@
       <c r="Q3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>77</v>
+      <c r="R3" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1063,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1080,22 +1077,22 @@
         <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>29</v>
@@ -1110,7 +1107,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>69</v>
@@ -1124,8 +1121,8 @@
       <c r="Q4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>77</v>
+      <c r="R4" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1135,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1152,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>28</v>
@@ -1182,7 +1179,7 @@
         <v>65</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>69</v>
@@ -1197,7 +1194,7 @@
         <v>75</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>22</v>
@@ -1207,7 +1204,7 @@
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="22"/>
@@ -1220,22 +1217,22 @@
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>27</v>
@@ -1265,7 +1262,7 @@
         <v>75</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>22</v>
@@ -1275,13 +1272,13 @@
         <v>1</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1292,22 +1289,22 @@
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>28</v>
@@ -1316,7 +1313,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>65</v>
@@ -1337,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>22</v>
@@ -1347,39 +1344,39 @@
         <v>1</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>29</v>
@@ -1394,7 +1391,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>69</v>
@@ -1409,7 +1406,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1419,38 +1416,38 @@
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>62</v>
@@ -1477,7 +1474,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1487,48 +1484,48 @@
         <v>1</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>65</v>
@@ -1549,7 +1546,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -1559,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1623,7 +1620,7 @@
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="22"/>
@@ -1683,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1747,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1811,7 +1808,7 @@
       </c>
       <c r="U14" s="21"/>
       <c r="V14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="22"/>
@@ -1871,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1935,13 +1932,13 @@
         <v>26</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2139,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U7</f>
@@ -2151,7 +2148,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
@@ -2160,7 +2157,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
@@ -2192,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2206,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2222,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2230,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,10 +2306,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2337,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2354,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2370,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,10 +2454,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2488,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2501,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2517,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +2570,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,31 +2614,31 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2807,12 +2804,12 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R2</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!U2</f>
@@ -2821,7 +2818,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!X2</f>
@@ -2830,7 +2827,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V2</f>
@@ -2998,12 +2995,12 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R3</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U3</f>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V3</f>
@@ -3021,7 +3018,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X3</f>
@@ -3189,12 +3186,12 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R4</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U4</f>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V4</f>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X4</f>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!X5</f>
@@ -3394,7 +3391,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!U5</f>
@@ -3403,7 +3400,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V5</f>
@@ -3576,7 +3573,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U6</f>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V6</f>
@@ -3594,7 +3591,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X6</f>
@@ -3767,7 +3764,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U7</f>
@@ -3776,7 +3773,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
@@ -3785,7 +3782,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
@@ -3953,12 +3950,12 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R8</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!X8</f>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!U8</f>
@@ -3976,7 +3973,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V8</f>
@@ -4144,12 +4141,12 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R9</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U9</f>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V9</f>
@@ -4167,7 +4164,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!X9</f>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -337,18 +337,12 @@
     <t>Business Name</t>
   </si>
   <si>
-    <t>iuliia.4</t>
-  </si>
-  <si>
     <t>iuliia.5</t>
   </si>
   <si>
     <t>iuliia.6</t>
   </si>
   <si>
-    <t>European Normal Tester</t>
-  </si>
-  <si>
     <t>European Reseller</t>
   </si>
   <si>
@@ -404,6 +398,12 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>deal test account</t>
+  </si>
+  <si>
+    <t>11111111111</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,25 +937,25 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>62</v>
@@ -967,7 +967,7 @@
         <v>65</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>69</v>
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
@@ -1005,13 +1005,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1077,13 +1077,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
@@ -1122,7 +1122,7 @@
         <v>75</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1355,22 +1355,22 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>95</v>
@@ -1406,7 +1406,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1423,22 +1423,22 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>99</v>
@@ -1447,7 +1447,7 @@
         <v>95</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>62</v>
@@ -1474,7 +1474,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1495,22 +1495,22 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>99</v>
@@ -1519,7 +1519,7 @@
         <v>95</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
@@ -1546,7 +1546,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -1958,21 +1958,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="F12" r:id="rId8"/>
-    <hyperlink ref="F13" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="F15" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
-    <hyperlink ref="F9" r:id="rId14"/>
-    <hyperlink ref="F10" r:id="rId15"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F11" r:id="rId6"/>
+    <hyperlink ref="F12" r:id="rId7"/>
+    <hyperlink ref="F13" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="F2" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -2485,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
-        <v>iuliia.4</v>
+        <v>dealtester</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
-        <v>European Normal Tester</v>
+        <v>deal test account</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F2</f>
-        <v>gltesting13@gmail.com</v>
+        <v>dealtester@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G2</f>
-        <v>123456789</v>
+        <v>11111111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H2</f>
-        <v>123456789</v>
+        <v>1111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I2</f>
-        <v>Spain</v>
+        <v>United Kingdom</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M2</f>
-        <v>00001</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="RecurrentEuroMasterReseller" sheetId="34" r:id="rId10"/>
     <sheet name="SignUpNormalUser" sheetId="30" r:id="rId11"/>
     <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
-    <sheet name="NymgoNormalEuroUser" sheetId="35" r:id="rId13"/>
+    <sheet name="NymgoEuroNormalUser" sheetId="35" r:id="rId13"/>
+    <sheet name="NymgoEuroReseller" sheetId="36" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="131">
   <si>
     <t>%</t>
   </si>
@@ -404,6 +405,21 @@
   </si>
   <si>
     <t>11111111111</t>
+  </si>
+  <si>
+    <t>dealReseller</t>
+  </si>
+  <si>
+    <t>Deal Reseller Account</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -826,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2649,6 +2665,187 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J9</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K9</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L9</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N9</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O9</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P9</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q9</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="SignUpReseller" sheetId="31" r:id="rId12"/>
     <sheet name="NymgoEuroNormalUser" sheetId="35" r:id="rId13"/>
     <sheet name="NymgoEuroReseller" sheetId="36" r:id="rId14"/>
+    <sheet name="NymgoInterNormalUser" sheetId="37" r:id="rId15"/>
+    <sheet name="NymgoInterReseller" sheetId="38" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="135">
   <si>
     <t>%</t>
   </si>
@@ -383,9 +385,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>dealtester</t>
   </si>
   <si>
@@ -420,6 +419,21 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>interdealtester</t>
+  </si>
+  <si>
+    <t>interdealtester@mail.ru</t>
+  </si>
+  <si>
+    <t>interdealreseller</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -842,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,22 +967,22 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
@@ -998,7 +1012,7 @@
         <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
@@ -1066,7 +1080,7 @@
         <v>75</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1138,7 +1152,7 @@
         <v>75</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1422,7 +1436,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1490,7 +1504,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1535,7 +1549,7 @@
         <v>95</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
@@ -1562,7 +1576,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -2000,7 +2014,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,8 +2028,8 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="str">
-        <f>TestAccountsInfo!C7</f>
-        <v>iuliia.3</v>
+        <f>TestAccountsInfo!C10</f>
+        <v>iuliia.9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f>TestAccountsInfo!D7</f>
+        <f>TestAccountsInfo!D10</f>
         <v>password</v>
       </c>
     </row>
@@ -2032,8 +2046,8 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>TestAccountsInfo!E7</f>
-        <v>International Master Reseller</v>
+        <f>TestAccountsInfo!E10</f>
+        <v>Recurrect Master Reseller Account</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,8 +2055,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>TestAccountsInfo!F7</f>
-        <v>gltesting17@gmail.com</v>
+        <f>TestAccountsInfo!F10</f>
+        <v>gltesting19@gmail.com</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2064,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="str">
-        <f>TestAccountsInfo!G7</f>
+        <f>TestAccountsInfo!G10</f>
         <v>789456123</v>
       </c>
     </row>
@@ -2059,7 +2073,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H7</f>
+        <f>TestAccountsInfo!H10</f>
         <v>123456789</v>
       </c>
     </row>
@@ -2068,8 +2082,8 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I7</f>
-        <v>United Arab Emirates</v>
+        <f>TestAccountsInfo!I10</f>
+        <v>France</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2091,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>TestAccountsInfo!J7</f>
+        <f>TestAccountsInfo!J10</f>
         <v>City</v>
       </c>
     </row>
@@ -2086,7 +2100,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>TestAccountsInfo!K7</f>
+        <f>TestAccountsInfo!K10</f>
         <v>Address</v>
       </c>
     </row>
@@ -2095,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>TestAccountsInfo!L7</f>
+        <f>TestAccountsInfo!L10</f>
         <v>Street</v>
       </c>
     </row>
@@ -2104,7 +2118,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="str">
-        <f>TestAccountsInfo!M7</f>
+        <f>TestAccountsInfo!M10</f>
         <v>00001</v>
       </c>
     </row>
@@ -2113,7 +2127,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="18" t="str">
-        <f>TestAccountsInfo!N7</f>
+        <f>TestAccountsInfo!N10</f>
         <v>AED</v>
       </c>
     </row>
@@ -2122,7 +2136,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="18" t="str">
-        <f>TestAccountsInfo!O7</f>
+        <f>TestAccountsInfo!O10</f>
         <v>USD</v>
       </c>
     </row>
@@ -2131,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="18" t="str">
-        <f>TestAccountsInfo!P7</f>
+        <f>TestAccountsInfo!P10</f>
         <v>International English</v>
       </c>
     </row>
@@ -2140,7 +2154,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="18" t="str">
-        <f>TestAccountsInfo!Q7</f>
+        <f>TestAccountsInfo!Q10</f>
         <v>united kingdom</v>
       </c>
     </row>
@@ -2149,8 +2163,8 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="str">
-        <f>TestAccountsInfo!R7</f>
-        <v>0</v>
+        <f>TestAccountsInfo!R10</f>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2172,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="19" t="str">
-        <f>TestAccountsInfo!U7</f>
+        <f>TestAccountsInfo!U10</f>
         <v>Manual</v>
       </c>
     </row>
@@ -2167,7 +2181,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="18" t="str">
-        <f>TestAccountsInfo!V7</f>
+        <f>TestAccountsInfo!V10</f>
         <v>15</v>
       </c>
     </row>
@@ -2175,9 +2189,9 @@
       <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="19" t="str">
-        <f>TestAccountsInfo!X7</f>
-        <v>Business Name</v>
+      <c r="B19" s="18" t="str">
+        <f>TestAccountsInfo!X10</f>
+        <v>Business name</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2531,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2547,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2644,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2683,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J9</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K9</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L9</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N9</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O9</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P9</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q9</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>TestAccountsInfo!H9</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>TestAccountsInfo!I9</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>TestAccountsInfo!J9</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>TestAccountsInfo!K9</f>
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>TestAccountsInfo!L9</f>
+        <v>Street</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>TestAccountsInfo!N9</f>
+        <v>AED</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>TestAccountsInfo!O9</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>TestAccountsInfo!P9</f>
+        <v>International English</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>TestAccountsInfo!Q9</f>
+        <v>united kingdom</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2684,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +3075,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +3091,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +3099,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +3107,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +3186,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,9 +3214,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3192,7 +3564,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R3</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3755,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4560,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:XFD1048576"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,7 +4710,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R9</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="133">
   <si>
     <t>%</t>
   </si>
@@ -262,9 +262,6 @@
     <t>VAT</t>
   </si>
   <si>
-    <t>International Normal Tester</t>
-  </si>
-  <si>
     <t>11111</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>BonusType</t>
   </si>
   <si>
-    <t>iuliia.1</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
@@ -385,24 +379,15 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>dealtester</t>
-  </si>
-  <si>
     <t>dealtester@mail.ru</t>
   </si>
   <si>
     <t>1111111111</t>
   </si>
   <si>
-    <t>Deal tester</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>deal test account</t>
-  </si>
-  <si>
     <t>11111111111</t>
   </si>
   <si>
@@ -421,9 +406,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>interdealtester</t>
-  </si>
-  <si>
     <t>interdealtester@mail.ru</t>
   </si>
   <si>
@@ -434,6 +416,18 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>ideal022916</t>
+  </si>
+  <si>
+    <t>deal022916</t>
+  </si>
+  <si>
+    <t>deal022916@mail.ru</t>
+  </si>
+  <si>
+    <t>ideal022916@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -856,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +950,7 @@
         <v>38</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -967,25 +961,25 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>62</v>
@@ -997,7 +991,7 @@
         <v>65</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>69</v>
@@ -1012,7 +1006,7 @@
         <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
@@ -1022,7 +1016,7 @@
       </c>
       <c r="U2" s="21"/>
       <c r="V2" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="22"/>
@@ -1035,22 +1029,22 @@
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
@@ -1065,7 +1059,7 @@
         <v>65</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>69</v>
@@ -1080,7 +1074,7 @@
         <v>75</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1090,13 +1084,13 @@
         <v>1</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1107,22 +1101,22 @@
         <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>29</v>
@@ -1137,7 +1131,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>69</v>
@@ -1152,7 +1146,7 @@
         <v>75</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1162,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1179,22 +1173,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>28</v>
@@ -1209,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>69</v>
@@ -1224,7 +1218,7 @@
         <v>75</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>22</v>
@@ -1234,7 +1228,7 @@
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="22"/>
@@ -1247,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>27</v>
@@ -1292,7 +1286,7 @@
         <v>75</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>22</v>
@@ -1302,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1319,22 +1313,22 @@
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>28</v>
@@ -1343,7 +1337,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>65</v>
@@ -1364,7 +1358,7 @@
         <v>75</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>22</v>
@@ -1374,39 +1368,39 @@
         <v>1</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>29</v>
@@ -1421,7 +1415,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" s="15" t="s">
         <v>69</v>
@@ -1436,7 +1430,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1446,38 +1440,38 @@
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>62</v>
@@ -1504,7 +1498,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1514,48 +1508,48 @@
         <v>1</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>65</v>
@@ -1576,7 +1570,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -1586,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1650,7 +1644,7 @@
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="22"/>
@@ -1710,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1774,13 +1768,13 @@
         <v>1</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1838,7 +1832,7 @@
       </c>
       <c r="U14" s="21"/>
       <c r="V14" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="22"/>
@@ -1898,13 +1892,13 @@
         <v>1</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1962,13 +1956,13 @@
         <v>26</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2163,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U10</f>
@@ -2178,7 +2172,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V10</f>
@@ -2187,7 +2181,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!X10</f>
@@ -2219,7 +2213,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2230,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2246,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,10 +2330,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2361,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2378,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2394,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2402,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,10 +2478,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2495,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2523,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2531,7 +2525,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2539,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2547,16 +2541,15 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H9</f>
-        <v>123456789</v>
+      <c r="B6" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2593,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,31 +2637,31 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2676,6 +2669,7 @@
     <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2698,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2708,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2724,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2732,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2740,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2775,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,31 +2819,31 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2864,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2889,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,25 +2905,23 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18" t="str">
-        <f>TestAccountsInfo!H9</f>
-        <v>123456789</v>
+      <c r="B6" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="19" t="str">
-        <f>TestAccountsInfo!I9</f>
-        <v>Estonia</v>
+      <c r="B7" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2956,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,34 +3000,37 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3059,7 +3054,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3067,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3075,7 +3070,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3083,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3086,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,7 +3094,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,7 +3102,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3142,7 +3137,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,31 +3181,31 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +3233,7 @@
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
-        <v>dealtester</v>
+        <v>deal022916</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3251,7 @@
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
-        <v>deal test account</v>
+        <v>deal022916</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3260,7 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F2</f>
-        <v>dealtester@mail.ru</v>
+        <v>deal022916@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3287,7 @@
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I2</f>
-        <v>United Kingdom</v>
+        <v>Estonia</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3373,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!U2</f>
@@ -3387,7 +3382,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!X2</f>
@@ -3396,7 +3391,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V2</f>
@@ -3569,7 +3564,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U3</f>
@@ -3578,7 +3573,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V3</f>
@@ -3587,7 +3582,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X3</f>
@@ -3760,7 +3755,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U4</f>
@@ -3769,7 +3764,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V4</f>
@@ -3778,7 +3773,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X4</f>
@@ -3811,7 +3806,7 @@
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C5</f>
-        <v>iuliia.1</v>
+        <v>ideal022916</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +3824,7 @@
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E5</f>
-        <v>International Normal Tester</v>
+        <v>ideal022916</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3833,7 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F5</f>
-        <v>gltesting17@gmail.com</v>
+        <v>ideal022916@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3842,7 @@
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G5</f>
-        <v>123456789</v>
+        <v>11111111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +3851,7 @@
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H5</f>
-        <v>123456789</v>
+        <v>1111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3946,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!X5</f>
@@ -3960,7 +3955,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!U5</f>
@@ -3969,7 +3964,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V5</f>
@@ -4142,7 +4137,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U6</f>
@@ -4151,7 +4146,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V6</f>
@@ -4160,7 +4155,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X6</f>
@@ -4333,7 +4328,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U7</f>
@@ -4342,7 +4337,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
@@ -4351,7 +4346,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
@@ -4524,7 +4519,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!X8</f>
@@ -4533,7 +4528,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!U8</f>
@@ -4542,7 +4537,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V8</f>
@@ -4715,7 +4710,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U9</f>
@@ -4724,7 +4719,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V9</f>
@@ -4733,7 +4728,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!X9</f>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -382,15 +382,9 @@
     <t>dealtester@mail.ru</t>
   </si>
   <si>
-    <t>1111111111</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>11111111111</t>
-  </si>
-  <si>
     <t>dealReseller</t>
   </si>
   <si>
@@ -428,6 +422,12 @@
   </si>
   <si>
     <t>ideal022916@mail.ru</t>
+  </si>
+  <si>
+    <t>deal030416</t>
+  </si>
+  <si>
+    <t>deal030416@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,22 +961,22 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>115</v>
@@ -1006,7 +1006,7 @@
         <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
@@ -1074,7 +1074,7 @@
         <v>75</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1146,7 +1146,7 @@
         <v>75</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1173,22 +1173,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>28</v>
@@ -1430,7 +1430,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1498,7 +1498,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>93</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
@@ -1570,7 +1570,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R10</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2549,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,7 +3086,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3094,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,7 +3102,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G2</f>
-        <v>11111111111</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H2</f>
-        <v>1111111111</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G5</f>
-        <v>11111111111</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H5</f>
-        <v>1111111111</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R8</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="134">
   <si>
     <t>%</t>
   </si>
@@ -379,55 +379,58 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>dealtester@mail.ru</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>dealReseller</t>
-  </si>
-  <si>
-    <t>Deal Reseller Account</t>
-  </si>
-  <si>
     <t>111111111</t>
   </si>
   <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ideal022916</t>
+  </si>
+  <si>
+    <t>deal022916</t>
+  </si>
+  <si>
+    <t>deal022916@mail.ru</t>
+  </si>
+  <si>
+    <t>ideal022916@mail.ru</t>
+  </si>
+  <si>
+    <t>edeal031416</t>
+  </si>
+  <si>
+    <t>edeal031416@mail.ru</t>
+  </si>
+  <si>
+    <t>ideal031416</t>
+  </si>
+  <si>
+    <t>ideal031416@mail.ru</t>
+  </si>
+  <si>
+    <t>idealReseller031416</t>
+  </si>
+  <si>
+    <t>idealReseller031416@mail.ru</t>
+  </si>
+  <si>
+    <t>edealReseller031416</t>
+  </si>
+  <si>
+    <t>edealReseller031416@mail.ru</t>
+  </si>
+  <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>interdealtester@mail.ru</t>
-  </si>
-  <si>
-    <t>interdealreseller</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ideal022916</t>
-  </si>
-  <si>
-    <t>deal022916</t>
-  </si>
-  <si>
-    <t>deal022916@mail.ru</t>
-  </si>
-  <si>
-    <t>ideal022916@mail.ru</t>
-  </si>
-  <si>
-    <t>deal030416</t>
-  </si>
-  <si>
-    <t>deal030416@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,22 +964,22 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>115</v>
@@ -1006,7 +1009,7 @@
         <v>75</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
@@ -1074,7 +1077,7 @@
         <v>75</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1146,7 +1149,7 @@
         <v>75</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1173,22 +1176,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>28</v>
@@ -1430,7 +1433,7 @@
         <v>75</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1498,7 +1501,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1543,7 +1546,7 @@
         <v>93</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>62</v>
@@ -1570,7 +1573,7 @@
         <v>75</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -2495,7 +2498,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2528,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2544,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2552,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2640,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,14 +2680,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2695,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2711,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2727,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2735,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2743,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2822,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,7 +2862,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2908,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2916,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,13 +3043,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3057,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3073,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3097,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,7 +3105,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,6 +3212,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -406,31 +406,31 @@
     <t>ideal022916@mail.ru</t>
   </si>
   <si>
-    <t>edeal031416</t>
-  </si>
-  <si>
-    <t>edeal031416@mail.ru</t>
-  </si>
-  <si>
-    <t>ideal031416</t>
-  </si>
-  <si>
-    <t>ideal031416@mail.ru</t>
-  </si>
-  <si>
-    <t>idealReseller031416</t>
-  </si>
-  <si>
-    <t>idealReseller031416@mail.ru</t>
-  </si>
-  <si>
-    <t>edealReseller031416</t>
-  </si>
-  <si>
-    <t>edealReseller031416@mail.ru</t>
-  </si>
-  <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>ideal031816</t>
+  </si>
+  <si>
+    <t>ideal031816@mail.ru</t>
+  </si>
+  <si>
+    <t>edeal031816</t>
+  </si>
+  <si>
+    <t>edeal031816@mail.ru</t>
+  </si>
+  <si>
+    <t>idealReseller031816</t>
+  </si>
+  <si>
+    <t>idealReseller031816@mail.ru</t>
+  </si>
+  <si>
+    <t>edealReseller031816</t>
+  </si>
+  <si>
+    <t>edealReseller031816@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" display="edeal031416@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2681,7 +2681,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,7 +2695,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" display="edealReseller031416@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2876,7 +2876,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" display="ideal031416@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3043,7 +3043,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,7 +3057,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" display="idealReseller031416@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -409,28 +409,28 @@
     <t>24</t>
   </si>
   <si>
-    <t>ideal031816</t>
-  </si>
-  <si>
-    <t>ideal031816@mail.ru</t>
-  </si>
-  <si>
-    <t>edeal031816</t>
-  </si>
-  <si>
-    <t>edeal031816@mail.ru</t>
-  </si>
-  <si>
-    <t>idealReseller031816</t>
-  </si>
-  <si>
-    <t>idealReseller031816@mail.ru</t>
-  </si>
-  <si>
-    <t>edealReseller031816</t>
-  </si>
-  <si>
-    <t>edealReseller031816@mail.ru</t>
+    <t>ideal032816</t>
+  </si>
+  <si>
+    <t>ideal032816@mail.ru</t>
+  </si>
+  <si>
+    <t>edeal032816</t>
+  </si>
+  <si>
+    <t>edeal032816@mail.ru</t>
+  </si>
+  <si>
+    <t>edealReseller032816</t>
+  </si>
+  <si>
+    <t>edealReseller032816@mail.ru</t>
+  </si>
+  <si>
+    <t>idealReseller032816</t>
+  </si>
+  <si>
+    <t>idealReseller032816@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2498,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,7 +2695,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,7 +3057,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="130">
   <si>
     <t>%</t>
   </si>
@@ -394,33 +394,9 @@
     <t>21</t>
   </si>
   <si>
-    <t>ideal022916</t>
-  </si>
-  <si>
-    <t>deal022916</t>
-  </si>
-  <si>
-    <t>deal022916@mail.ru</t>
-  </si>
-  <si>
-    <t>ideal022916@mail.ru</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>ideal032816</t>
-  </si>
-  <si>
-    <t>ideal032816@mail.ru</t>
-  </si>
-  <si>
-    <t>edeal032816</t>
-  </si>
-  <si>
-    <t>edeal032816@mail.ru</t>
-  </si>
-  <si>
     <t>edealReseller032816</t>
   </si>
   <si>
@@ -431,6 +407,18 @@
   </si>
   <si>
     <t>idealReseller032816@mail.ru</t>
+  </si>
+  <si>
+    <t>edeal040416</t>
+  </si>
+  <si>
+    <t>edeal040416@mail.ru</t>
+  </si>
+  <si>
+    <t>ideal040416</t>
+  </si>
+  <si>
+    <t>ideal040416@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -854,7 +842,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,16 +952,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>117</v>
@@ -1176,16 +1164,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>117</v>
@@ -1987,7 +1975,7 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId3" display="ideal022916@mail.ru"/>
     <hyperlink ref="F6" r:id="rId4"/>
     <hyperlink ref="F7" r:id="rId5"/>
     <hyperlink ref="F11" r:id="rId6"/>
@@ -1999,7 +1987,7 @@
     <hyperlink ref="F8" r:id="rId12"/>
     <hyperlink ref="F9" r:id="rId13"/>
     <hyperlink ref="F10" r:id="rId14"/>
-    <hyperlink ref="F2" r:id="rId15"/>
+    <hyperlink ref="F2" r:id="rId15" display="deal022916@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -2497,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2516,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2683,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2699,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2810,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +2850,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2864,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2880,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3057,7 +3045,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3061,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3227,7 @@
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
-        <v>deal022916</v>
+        <v>edeal040416</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,7 +3245,7 @@
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
-        <v>deal022916</v>
+        <v>edeal040416</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3254,7 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F2</f>
-        <v>deal022916@mail.ru</v>
+        <v>edeal040416@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3800,7 @@
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C5</f>
-        <v>ideal022916</v>
+        <v>ideal040416</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,7 +3818,7 @@
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E5</f>
-        <v>ideal022916</v>
+        <v>ideal040416</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3827,7 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F5</f>
-        <v>ideal022916@mail.ru</v>
+        <v>ideal040416@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/NymgoUsers.xlsx
+++ b/NymgoUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="TestAccountsInfo" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="132">
   <si>
     <t>%</t>
   </si>
@@ -103,18 +103,12 @@
     <t>Adyen</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>Bonus Type</t>
   </si>
   <si>
     <t>Automatic</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>11111</t>
   </si>
   <si>
-    <t>International Reseller</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>gltesting17@gmail.com</t>
   </si>
   <si>
-    <t>iuliia.2</t>
-  </si>
-  <si>
     <t>789456123</t>
   </si>
   <si>
@@ -334,15 +322,9 @@
     <t>Business Name</t>
   </si>
   <si>
-    <t>iuliia.5</t>
-  </si>
-  <si>
     <t>iuliia.6</t>
   </si>
   <si>
-    <t>European Reseller</t>
-  </si>
-  <si>
     <t>European Master Reseller</t>
   </si>
   <si>
@@ -419,6 +401,30 @@
   </si>
   <si>
     <t>ideal040416@mail.ru</t>
+  </si>
+  <si>
+    <t>edeal040616</t>
+  </si>
+  <si>
+    <t>edeal040616@mail.ru</t>
+  </si>
+  <si>
+    <t>ideal040616</t>
+  </si>
+  <si>
+    <t>ideal040616@mail.ru</t>
+  </si>
+  <si>
+    <t>edealReseller040616</t>
+  </si>
+  <si>
+    <t>idealReseller040616</t>
+  </si>
+  <si>
+    <t>edealReseller040616@mail.ru</t>
+  </si>
+  <si>
+    <t>idealReseller040616@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -841,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +858,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="23" customWidth="1" collapsed="1"/>
     <col min="10" max="11" width="12.140625" customWidth="1" collapsed="1"/>
@@ -878,194 +884,194 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="R2" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" s="21"/>
       <c r="V2" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="22"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="L3" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="R3" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>21</v>
@@ -1075,69 +1081,69 @@
         <v>1</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="L4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="R4" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>21</v>
@@ -1147,69 +1153,69 @@
         <v>1</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>22</v>
@@ -1219,65 +1225,65 @@
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="22"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="P6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="R6" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>22</v>
@@ -1287,69 +1293,69 @@
         <v>1</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="N7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="R7" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>22</v>
@@ -1359,69 +1365,69 @@
         <v>1</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>22</v>
@@ -1431,65 +1437,65 @@
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="J9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>22</v>
@@ -1499,69 +1505,69 @@
         <v>1</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>22</v>
@@ -1571,18 +1577,18 @@
         <v>1</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -1598,31 +1604,31 @@
         <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="O11" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1635,14 +1641,14 @@
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>20</v>
@@ -1658,31 +1664,31 @@
         <v>10</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="L12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -1695,18 +1701,18 @@
         <v>1</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -1722,31 +1728,31 @@
         <v>10</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="L13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="O13" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
@@ -1759,58 +1765,58 @@
         <v>1</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="L14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="N14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="O14" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -1823,54 +1829,54 @@
       </c>
       <c r="U14" s="21"/>
       <c r="V14" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="22"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="L15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="O15" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
@@ -1883,58 +1889,58 @@
         <v>1</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="L16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="N16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="O16" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -1944,21 +1950,21 @@
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
@@ -1968,26 +1974,26 @@
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3" display="ideal022916@mail.ru"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
-    <hyperlink ref="F12" r:id="rId7"/>
-    <hyperlink ref="F13" r:id="rId8"/>
-    <hyperlink ref="F14" r:id="rId9"/>
-    <hyperlink ref="F15" r:id="rId10"/>
-    <hyperlink ref="F16" r:id="rId11"/>
-    <hyperlink ref="F8" r:id="rId12"/>
-    <hyperlink ref="F9" r:id="rId13"/>
-    <hyperlink ref="F10" r:id="rId14"/>
-    <hyperlink ref="F2" r:id="rId15" display="deal022916@mail.ru"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2" display="ideal022916@mail.ru"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="F12" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7"/>
+    <hyperlink ref="F15" r:id="rId8"/>
+    <hyperlink ref="F16" r:id="rId9"/>
+    <hyperlink ref="F8" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="F2" r:id="rId13" display="deal022916@mail.ru"/>
+    <hyperlink ref="F3" r:id="rId14"/>
+    <hyperlink ref="F6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -2010,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C10</f>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E10</f>
@@ -2046,7 +2052,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G10</f>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H10</f>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I10</f>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J10</f>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K10</f>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L10</f>
@@ -2100,7 +2106,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M10</f>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N10</f>
@@ -2118,7 +2124,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O10</f>
@@ -2127,7 +2133,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P10</f>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q10</f>
@@ -2145,7 +2151,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R10</f>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U10</f>
@@ -2163,7 +2169,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V10</f>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!X10</f>
@@ -2201,10 +2207,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,10 +2224,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,28 +2235,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -2259,7 +2265,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -2277,7 +2283,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -2286,7 +2292,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -2295,15 +2301,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -2312,7 +2318,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -2321,10 +2327,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2349,10 +2355,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,10 +2372,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,28 +2383,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -2407,7 +2413,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -2443,15 +2449,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -2469,10 +2475,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -2497,10 +2503,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,15 +2514,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,28 +2530,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I9</f>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J9</f>
@@ -2563,7 +2569,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K9</f>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L9</f>
@@ -2581,15 +2587,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N9</f>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O9</f>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P9</f>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q9</f>
@@ -2625,34 +2631,34 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2680,10 +2686,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2691,15 +2697,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2707,36 +2713,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J9</f>
@@ -2745,7 +2751,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K9</f>
@@ -2754,7 +2760,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L9</f>
@@ -2763,15 +2769,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N9</f>
@@ -2780,7 +2786,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O9</f>
@@ -2789,7 +2795,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P9</f>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q9</f>
@@ -2807,34 +2813,34 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2861,10 +2867,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,15 +2878,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,36 +2894,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J9</f>
@@ -2926,7 +2932,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K9</f>
@@ -2935,7 +2941,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L9</f>
@@ -2944,15 +2950,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N9</f>
@@ -2961,7 +2967,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O9</f>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P9</f>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q9</f>
@@ -2988,34 +2994,34 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3042,10 +3048,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,15 +3059,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,36 +3075,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J9</f>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K9</f>
@@ -3116,7 +3122,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L9</f>
@@ -3125,15 +3131,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N9</f>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O9</f>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P9</f>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q9</f>
@@ -3169,34 +3175,34 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3223,11 +3229,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C2</f>
-        <v>edeal040416</v>
+        <v>edeal040616</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,11 +3247,11 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E2</f>
-        <v>edeal040416</v>
+        <v>edeal040616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,12 +3260,12 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F2</f>
-        <v>edeal040416@mail.ru</v>
+        <v>edeal040616@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G2</f>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H2</f>
@@ -3277,7 +3283,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I2</f>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J2</f>
@@ -3295,7 +3301,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K2</f>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L2</f>
@@ -3313,7 +3319,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M2</f>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N2</f>
@@ -3331,7 +3337,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O2</f>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P2</f>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q2</f>
@@ -3358,7 +3364,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R2</f>
@@ -3367,7 +3373,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!U2</f>
@@ -3376,7 +3382,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!X2</f>
@@ -3385,7 +3391,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V2</f>
@@ -3414,11 +3420,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C3</f>
-        <v>iuliia.5</v>
+        <v>edealReseller040616</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,11 +3438,11 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E3</f>
-        <v>European Reseller</v>
+        <v>edealReseller040616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,39 +3451,39 @@
       </c>
       <c r="B4" s="19" t="str">
         <f>TestAccountsInfo!F3</f>
-        <v>gltesting13@gmail.com</v>
+        <v>edealReseller040616@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G3</f>
-        <v>789456123</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H3</f>
-        <v>123456789</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I3</f>
-        <v>Spain</v>
+        <v>Finland</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J3</f>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K3</f>
@@ -3495,7 +3501,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L3</f>
@@ -3504,7 +3510,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M3</f>
@@ -3513,7 +3519,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N3</f>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O3</f>
@@ -3531,7 +3537,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P3</f>
@@ -3540,7 +3546,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q3</f>
@@ -3549,16 +3555,16 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R3</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U3</f>
@@ -3567,7 +3573,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V3</f>
@@ -3576,7 +3582,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X3</f>
@@ -3605,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C4</f>
@@ -3623,7 +3629,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E4</f>
@@ -3641,7 +3647,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G4</f>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H4</f>
@@ -3659,7 +3665,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I4</f>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J4</f>
@@ -3677,7 +3683,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K4</f>
@@ -3686,7 +3692,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L4</f>
@@ -3695,7 +3701,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M4</f>
@@ -3704,7 +3710,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N4</f>
@@ -3713,7 +3719,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O4</f>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P4</f>
@@ -3731,7 +3737,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q4</f>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R4</f>
@@ -3749,7 +3755,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U4</f>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V4</f>
@@ -3767,7 +3773,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X4</f>
@@ -3796,11 +3802,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C5</f>
-        <v>ideal040416</v>
+        <v>ideal040616</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,11 +3820,11 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E5</f>
-        <v>ideal040416</v>
+        <v>ideal040616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,12 +3833,12 @@
       </c>
       <c r="B4" t="str">
         <f>TestAccountsInfo!F5</f>
-        <v>ideal040416@mail.ru</v>
+        <v>ideal040616@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G5</f>
@@ -3841,7 +3847,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H5</f>
@@ -3850,7 +3856,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I5</f>
@@ -3859,7 +3865,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J5</f>
@@ -3868,7 +3874,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K5</f>
@@ -3877,7 +3883,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L5</f>
@@ -3886,7 +3892,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M5</f>
@@ -3895,7 +3901,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N5</f>
@@ -3904,7 +3910,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O5</f>
@@ -3913,7 +3919,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P5</f>
@@ -3922,7 +3928,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q5</f>
@@ -3931,7 +3937,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R5</f>
@@ -3940,7 +3946,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!X5</f>
@@ -3949,7 +3955,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!U5</f>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V5</f>
@@ -3987,11 +3993,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C6</f>
-        <v>iuliia.2</v>
+        <v>idealReseller040616</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,11 +4011,11 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E6</f>
-        <v>International Reseller</v>
+        <v>idealReseller040616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,39 +4024,39 @@
       </c>
       <c r="B4" s="19" t="str">
         <f>TestAccountsInfo!F6</f>
-        <v>gltesting17@gmail.com</v>
+        <v>idealReseller040616@mail.ru</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G6</f>
-        <v>789456123</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H6</f>
-        <v>123456789</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I6</f>
-        <v>Lebanon</v>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J6</f>
@@ -4059,7 +4065,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K6</f>
@@ -4068,7 +4074,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L6</f>
@@ -4077,16 +4083,16 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M6</f>
-        <v>00001</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N6</f>
@@ -4095,7 +4101,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O6</f>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P6</f>
@@ -4113,7 +4119,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q6</f>
@@ -4122,7 +4128,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R6</f>
@@ -4131,7 +4137,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U6</f>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V6</f>
@@ -4149,7 +4155,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X6</f>
@@ -4178,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C7</f>
@@ -4196,7 +4202,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E7</f>
@@ -4214,7 +4220,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G7</f>
@@ -4223,7 +4229,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H7</f>
@@ -4232,7 +4238,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I7</f>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J7</f>
@@ -4250,7 +4256,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K7</f>
@@ -4259,7 +4265,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L7</f>
@@ -4268,7 +4274,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M7</f>
@@ -4277,7 +4283,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N7</f>
@@ -4286,7 +4292,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O7</f>
@@ -4295,7 +4301,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P7</f>
@@ -4304,7 +4310,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q7</f>
@@ -4313,7 +4319,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R7</f>
@@ -4322,7 +4328,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U7</f>
@@ -4331,7 +4337,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V7</f>
@@ -4340,7 +4346,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>TestAccountsInfo!X7</f>
@@ -4369,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="str">
         <f>TestAccountsInfo!C8</f>
@@ -4387,7 +4393,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="str">
         <f>TestAccountsInfo!E8</f>
@@ -4405,7 +4411,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G8</f>
@@ -4414,7 +4420,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H8</f>
@@ -4423,7 +4429,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="str">
         <f>TestAccountsInfo!I8</f>
@@ -4432,7 +4438,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="str">
         <f>TestAccountsInfo!J8</f>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="str">
         <f>TestAccountsInfo!K8</f>
@@ -4450,7 +4456,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="str">
         <f>TestAccountsInfo!L8</f>
@@ -4459,7 +4465,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M8</f>
@@ -4468,7 +4474,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N8</f>
@@ -4477,7 +4483,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O8</f>
@@ -4486,7 +4492,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P8</f>
@@ -4495,7 +4501,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q8</f>
@@ -4504,7 +4510,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R8</f>
@@ -4513,7 +4519,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" s="18">
         <f>TestAccountsInfo!X8</f>
@@ -4522,7 +4528,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B18" s="18">
         <f>TestAccountsInfo!U8</f>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!V8</f>
@@ -4560,7 +4566,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="19" t="str">
         <f>TestAccountsInfo!C9</f>
@@ -4578,7 +4584,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="str">
         <f>TestAccountsInfo!E9</f>
@@ -4596,7 +4602,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="str">
         <f>TestAccountsInfo!G9</f>
@@ -4605,7 +4611,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>TestAccountsInfo!H9</f>
@@ -4614,7 +4620,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>TestAccountsInfo!I9</f>
@@ -4623,7 +4629,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>TestAccountsInfo!J9</f>
@@ -4632,7 +4638,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>TestAccountsInfo!K9</f>
@@ -4641,7 +4647,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>TestAccountsInfo!L9</f>
@@ -4650,7 +4656,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>TestAccountsInfo!M9</f>
@@ -4659,7 +4665,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>TestAccountsInfo!N9</f>
@@ -4668,7 +4674,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>TestAccountsInfo!O9</f>
@@ -4677,7 +4683,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>TestAccountsInfo!P9</f>
@@ -4686,7 +4692,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>TestAccountsInfo!Q9</f>
@@ -4695,7 +4701,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>TestAccountsInfo!R9</f>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>TestAccountsInfo!U9</f>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>TestAccountsInfo!V9</f>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>TestAccountsInfo!X9</f>
